--- a/DB Mercedes/Base de Datos Mercedes.xlsx
+++ b/DB Mercedes/Base de Datos Mercedes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juanito\Desktop\TESIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juanito\Desktop\TESIS\Departamento Experimental\DB Mercedes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160B0317-30D8-4888-8428-7BBBD8433B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB35503-623D-4DCB-943B-18527CF23AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="4275" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo Firebase" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="314">
   <si>
     <t>Descripcion</t>
   </si>
@@ -377,12 +377,6 @@
     <t>CUARENTENA</t>
   </si>
   <si>
-    <t>#000000</t>
-  </si>
-  <si>
-    <t>#FFFFFF</t>
-  </si>
-  <si>
     <t>#673ab7</t>
   </si>
   <si>
@@ -437,12 +431,6 @@
     <t>#64DD17</t>
   </si>
   <si>
-    <t>#0091EA</t>
-  </si>
-  <si>
-    <t>#C51162</t>
-  </si>
-  <si>
     <t>NEONATOLOGIA</t>
   </si>
   <si>
@@ -534,13 +522,469 @@
   </si>
   <si>
     <t>APLICACIÓN DE PROPERIO</t>
+  </si>
+  <si>
+    <t>SALA DE DILATACION</t>
+  </si>
+  <si>
+    <t>ALOJAMIENTO CONJUNTO</t>
+  </si>
+  <si>
+    <t>OBSTETRICIA C PORPERIO</t>
+  </si>
+  <si>
+    <t>AULA</t>
+  </si>
+  <si>
+    <t>ROPA SUCIA</t>
+  </si>
+  <si>
+    <t>TOPICO 1</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE GINECOLOGIA Y OBSTETRICIA</t>
+  </si>
+  <si>
+    <t>SALA DE LACTANTES</t>
+  </si>
+  <si>
+    <t>SAL DE CHARLAS</t>
+  </si>
+  <si>
+    <t>SALA DE PRE ESCOLARES</t>
+  </si>
+  <si>
+    <t>MORGUE</t>
+  </si>
+  <si>
+    <t>ANATOMIA PATOLOGICA 2</t>
+  </si>
+  <si>
+    <t>ANATOMIA PATOLOGICA 1</t>
+  </si>
+  <si>
+    <t>Edificio 11</t>
+  </si>
+  <si>
+    <t>Edificio 12</t>
+  </si>
+  <si>
+    <t>UNIDAD DE REHABILITACION</t>
+  </si>
+  <si>
+    <t>PLANIFICACION</t>
+  </si>
+  <si>
+    <t>TESORERIA</t>
+  </si>
+  <si>
+    <t>JEFATURA DE EMERGENCIAS</t>
+  </si>
+  <si>
+    <t>VALUNTARIADO</t>
+  </si>
+  <si>
+    <t>RAYOS X</t>
+  </si>
+  <si>
+    <t>CAJERO BN</t>
+  </si>
+  <si>
+    <t>TOMOGRAFIA 1</t>
+  </si>
+  <si>
+    <t>TOMOGRAFIA 2</t>
+  </si>
+  <si>
+    <t>MAMOGRAFIA</t>
+  </si>
+  <si>
+    <t>ECCOCARDIOGRAFO</t>
+  </si>
+  <si>
+    <t>ENTREGA DE LECTURA DE PLACAS</t>
+  </si>
+  <si>
+    <t>ALACEN</t>
+  </si>
+  <si>
+    <t>ECOGRAFIA ABDOMINAL RENAL ROTAX PROSTATAS</t>
+  </si>
+  <si>
+    <t>JEFATURA ECOGRAFIA</t>
+  </si>
+  <si>
+    <t>INFORMACION MAMOGRAFIA</t>
+  </si>
+  <si>
+    <t>LAVADOS</t>
+  </si>
+  <si>
+    <t>GINECOLOGIA ONCOLOGIA COLPOSCOPIA CRIPTERAPIA</t>
+  </si>
+  <si>
+    <t>Edifico 13</t>
+  </si>
+  <si>
+    <t>BAÑO 3</t>
+  </si>
+  <si>
+    <t>ALACEN 2</t>
+  </si>
+  <si>
+    <t>ENDOSCOPIAS COLONOSCOPIAS</t>
+  </si>
+  <si>
+    <t>LIMPIEZA</t>
+  </si>
+  <si>
+    <t>ANESTECIA</t>
+  </si>
+  <si>
+    <t>OBSERVACION MUJERES</t>
+  </si>
+  <si>
+    <t>TOPICO TRAUMATOLOGIA</t>
+  </si>
+  <si>
+    <t>SALA TRAUMASHOCK</t>
+  </si>
+  <si>
+    <t>OBSERVACION HOMBRES</t>
+  </si>
+  <si>
+    <t>TOPICO GINECOLOGIA</t>
+  </si>
+  <si>
+    <t>TOPICO CIRUGIA</t>
+  </si>
+  <si>
+    <t>TOPICO MEDICINA 1</t>
+  </si>
+  <si>
+    <t>TOPICO MEDICINA 2</t>
+  </si>
+  <si>
+    <t>TOPICO MEDICINA 3</t>
+  </si>
+  <si>
+    <t>EMERGENCIA PEDIATRICA</t>
+  </si>
+  <si>
+    <t>HOSPITALIZACION EMERGENCIA PEDIATRIA</t>
+  </si>
+  <si>
+    <t>UNIDAD DE REINDUCCION ORAL</t>
+  </si>
+  <si>
+    <t>Edificio 14</t>
+  </si>
+  <si>
+    <t>RESIDUOS SOLIDOS COMUNES</t>
+  </si>
+  <si>
+    <t>RR.SS.BIOCONTAMINANTES</t>
+  </si>
+  <si>
+    <t>SERVICIOS GENERALES</t>
+  </si>
+  <si>
+    <t>Edificio 15</t>
+  </si>
+  <si>
+    <t>HOSPITALIZACION CIRUGIA MUJERES</t>
+  </si>
+  <si>
+    <t>HOSPITALIZACION DE QUEMADOS</t>
+  </si>
+  <si>
+    <t>SS.HH.3</t>
+  </si>
+  <si>
+    <t>CAPACITACION</t>
+  </si>
+  <si>
+    <t>OF. GRD</t>
+  </si>
+  <si>
+    <t>AMBIENTE 1</t>
+  </si>
+  <si>
+    <t>AMBIENTE 2</t>
+  </si>
+  <si>
+    <t>AMBIENTE 3</t>
+  </si>
+  <si>
+    <t>AGENTES FISICOS</t>
+  </si>
+  <si>
+    <t>MAGNETOTERAPIA</t>
+  </si>
+  <si>
+    <t>TERAPIA DE LENGUAJE</t>
+  </si>
+  <si>
+    <t>TERAPIA OCUPACIONAL</t>
+  </si>
+  <si>
+    <t>TERAPIA NIÑOS</t>
+  </si>
+  <si>
+    <t>CONSULTA EXTERNA MEDICA FISICA Y REHABILITACION</t>
+  </si>
+  <si>
+    <t>TERAPIA ADULTOS</t>
+  </si>
+  <si>
+    <t>HOSPITALIZACION CIRUJIA HOMBRES</t>
+  </si>
+  <si>
+    <t>HOSPITALIZACION TRAUMATOLOGIA HOMBRES</t>
+  </si>
+  <si>
+    <t>TOPICO CURACIONES</t>
+  </si>
+  <si>
+    <t>AREA CRITICA</t>
+  </si>
+  <si>
+    <t>SS.HH. 3</t>
+  </si>
+  <si>
+    <t>JEFATURA 1</t>
+  </si>
+  <si>
+    <t>JEFATURA 2</t>
+  </si>
+  <si>
+    <t>RESPOT. CIRUGIA</t>
+  </si>
+  <si>
+    <t>ESTAR ENFERMERIA</t>
+  </si>
+  <si>
+    <t>SS.HH.4</t>
+  </si>
+  <si>
+    <t>SS. HH. 5</t>
+  </si>
+  <si>
+    <t>SS. HH. 6</t>
+  </si>
+  <si>
+    <t>Edificio 16</t>
+  </si>
+  <si>
+    <t>ORATORIO</t>
+  </si>
+  <si>
+    <t>RECIBO</t>
+  </si>
+  <si>
+    <t>DORMITORIO 1</t>
+  </si>
+  <si>
+    <t>DORMITORIO 2</t>
+  </si>
+  <si>
+    <t>DORMITORIO 3</t>
+  </si>
+  <si>
+    <t>DORMITORIO 4</t>
+  </si>
+  <si>
+    <t>DORMITORIO</t>
+  </si>
+  <si>
+    <t>DORMITORIO 5</t>
+  </si>
+  <si>
+    <t>DORMITORIO 6</t>
+  </si>
+  <si>
+    <t>DORMITORIO 7</t>
+  </si>
+  <si>
+    <t>DORMITORIO 8</t>
+  </si>
+  <si>
+    <t>SS. HH. 1</t>
+  </si>
+  <si>
+    <t>SS. HH. 2</t>
+  </si>
+  <si>
+    <t>FARMACIA</t>
+  </si>
+  <si>
+    <t>RECUADACION</t>
+  </si>
+  <si>
+    <t>A.D.A.P.E.</t>
+  </si>
+  <si>
+    <t>Edificio 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Baños</t>
+  </si>
+  <si>
+    <t>Capilla</t>
+  </si>
+  <si>
+    <t>Comedor</t>
+  </si>
+  <si>
+    <t>DEPOSITO DE REACTIVOS</t>
+  </si>
+  <si>
+    <t>PATOLOGIA</t>
+  </si>
+  <si>
+    <t>JEFATURA PATOLOGICA</t>
+  </si>
+  <si>
+    <t>MICROBIOLOGIA</t>
+  </si>
+  <si>
+    <t>LABORATORIO</t>
+  </si>
+  <si>
+    <t>SERVICO SEROLOGIA</t>
+  </si>
+  <si>
+    <t>SECRETARIA RECEPCION</t>
+  </si>
+  <si>
+    <t>JEFATURA ALBORATORIO</t>
+  </si>
+  <si>
+    <t>VACUNATORIO</t>
+  </si>
+  <si>
+    <t>NEUMOLOGIA</t>
+  </si>
+  <si>
+    <t>TUMORES Y DETECCION DE CANCER</t>
+  </si>
+  <si>
+    <t>PSICOLOGIA</t>
+  </si>
+  <si>
+    <t>PEDIATRIA 1</t>
+  </si>
+  <si>
+    <t>PEDIATRIA 2</t>
+  </si>
+  <si>
+    <t>CARDIOLOGIA</t>
+  </si>
+  <si>
+    <t>TRIAJE DE PEDIATRIA</t>
+  </si>
+  <si>
+    <t>ESTADISTICA</t>
+  </si>
+  <si>
+    <t>OFTAMOLOGIA</t>
+  </si>
+  <si>
+    <t>PERSONAL</t>
+  </si>
+  <si>
+    <t>JEFATURA ENFEREMERAS</t>
+  </si>
+  <si>
+    <t>CORREDOR</t>
+  </si>
+  <si>
+    <t>ODONTOLOGIA</t>
+  </si>
+  <si>
+    <t>CONS. EXTERNO PEDITRIA</t>
+  </si>
+  <si>
+    <t>TRIAJE DE MEDICO</t>
+  </si>
+  <si>
+    <t>MEDICINA 1</t>
+  </si>
+  <si>
+    <t>MEDICINA GENERAL</t>
+  </si>
+  <si>
+    <t>GINECOLOGIA PATOLOGIA MAMARIA</t>
+  </si>
+  <si>
+    <t>ENDOCRINOE.</t>
+  </si>
+  <si>
+    <t>GASTRO.</t>
+  </si>
+  <si>
+    <t>CIRUGIA NEUROCIRUGIA</t>
+  </si>
+  <si>
+    <t>OBSTETRICIA 1</t>
+  </si>
+  <si>
+    <t>BOSTETRICIA 2</t>
+  </si>
+  <si>
+    <t>CABEZA Y CUELLO UROLOGIA</t>
+  </si>
+  <si>
+    <t>C. DECTECTOR CANCER GINECOLOG. Y MAMAS</t>
+  </si>
+  <si>
+    <t>OTORRINOLARING.</t>
+  </si>
+  <si>
+    <t>DERMATOLOGIA</t>
+  </si>
+  <si>
+    <t>TRAUMATOLOG.</t>
+  </si>
+  <si>
+    <t>ARCHIVO DE HIST. CLINIC.</t>
+  </si>
+  <si>
+    <t>BAÑO PARA DAMAS</t>
+  </si>
+  <si>
+    <t>BAÑO PARA CABALLEROS</t>
+  </si>
+  <si>
+    <t>CAPILLA</t>
+  </si>
+  <si>
+    <t>Zonas seguras</t>
+  </si>
+  <si>
+    <t>ESTACIONAMIENTO VEHICULAR</t>
+  </si>
+  <si>
+    <t>JARDIN 1</t>
+  </si>
+  <si>
+    <t>JARDIN 2</t>
+  </si>
+  <si>
+    <t>#000000 (BLACK)</t>
+  </si>
+  <si>
+    <t>#FFFFFF (WHITE)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,6 +1042,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="28">
@@ -741,18 +1202,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0091EA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC51162"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -763,8 +1212,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -890,30 +1351,6 @@
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color theme="0"/>
@@ -945,14 +1382,105 @@
       <top style="thin">
         <color theme="0"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -961,295 +1489,413 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1612,18 +2258,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:S149"/>
+  <dimension ref="B3:S310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F134" sqref="D126:F134"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F300" sqref="F300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="69.28515625" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -1633,65 +2279,65 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="78" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="79">
-        <f>COUNT(B5:B146)</f>
-        <v>121</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="12">
+        <f>COUNT(B5:B307)</f>
+        <v>302</v>
+      </c>
+      <c r="D3" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="R3" s="5" t="s">
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="R3" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="5"/>
+      <c r="S3" s="114"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="R4" s="1" t="s">
@@ -1702,23 +2348,23 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="102">
+      <c r="B5" s="15">
         <v>101</v>
       </c>
-      <c r="C5" s="100" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="103" t="s">
+      <c r="C5" s="59" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="1"/>
@@ -1728,13 +2374,13 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="2:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="102">
+      <c r="B6" s="14">
         <v>102</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="12" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="4"/>
@@ -1746,13 +2392,13 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="102">
+      <c r="B7" s="14">
         <v>103</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12" t="s">
+      <c r="C7" s="59"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="4"/>
@@ -1764,13 +2410,13 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="102">
+      <c r="B8" s="14">
         <v>104</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="4"/>
@@ -1782,13 +2428,13 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="102">
+      <c r="B9" s="14">
         <v>105</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14" t="s">
+      <c r="C9" s="59"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="9" t="s">
         <v>112</v>
       </c>
       <c r="G9" s="4"/>
@@ -1800,13 +2446,13 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="102">
+      <c r="B10" s="14">
         <v>106</v>
       </c>
-      <c r="C10" s="101"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="4"/>
@@ -1818,13 +2464,13 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="102">
+      <c r="B11" s="14">
         <v>107</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="12" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="4"/>
@@ -1836,13 +2482,13 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="102">
+      <c r="B12" s="14">
         <v>108</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="12" t="s">
+      <c r="C12" s="59"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="4"/>
@@ -1854,13 +2500,13 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="102">
+      <c r="B13" s="14">
         <v>109</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12" t="s">
+      <c r="C13" s="59"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="4"/>
@@ -1872,13 +2518,13 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="102">
+      <c r="B14" s="14">
         <v>110</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12" t="s">
+      <c r="C14" s="59"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="4"/>
@@ -1890,13 +2536,13 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="102">
+      <c r="B15" s="14">
         <v>111</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="12" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="4"/>
@@ -1908,13 +2554,13 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="102">
+      <c r="B16" s="14">
         <v>112</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="12" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="4"/>
@@ -1926,13 +2572,13 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="102">
+      <c r="B17" s="14">
         <v>113</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="12" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="4"/>
@@ -1944,13 +2590,13 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="102">
+      <c r="B18" s="14">
         <v>114</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="12" t="s">
+      <c r="C18" s="60"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="4"/>
@@ -1962,19 +2608,19 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="93">
+      <c r="B19" s="13">
         <v>201</v>
       </c>
-      <c r="C19" s="100" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="97" t="s">
+      <c r="C19" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="D19" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="4"/>
@@ -1986,13 +2632,13 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="93">
+      <c r="B20" s="13">
         <v>202</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="14" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="9" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="4"/>
@@ -2004,13 +2650,13 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="93">
+      <c r="B21" s="13">
         <v>203</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="14" t="s">
+      <c r="C21" s="59"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="4"/>
@@ -2022,13 +2668,13 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="93">
+      <c r="B22" s="13">
         <v>204</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="14" t="s">
+      <c r="C22" s="59"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="4"/>
@@ -2040,13 +2686,13 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="93">
+      <c r="B23" s="13">
         <v>205</v>
       </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="14" t="s">
+      <c r="C23" s="59"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="4"/>
@@ -2058,13 +2704,13 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="93">
+      <c r="B24" s="13">
         <v>206</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="14" t="s">
+      <c r="C24" s="59"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="4"/>
@@ -2076,13 +2722,13 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="93">
+      <c r="B25" s="39">
         <v>207</v>
       </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="14" t="s">
+      <c r="C25" s="59"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="4"/>
@@ -2094,19 +2740,19 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="92">
+      <c r="B26" s="52">
         <v>301</v>
       </c>
-      <c r="C26" s="112" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="94" t="s">
+      <c r="C26" s="132" t="s">
+        <v>313</v>
+      </c>
+      <c r="D26" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="34" t="s">
         <v>34</v>
       </c>
       <c r="G26" s="1"/>
@@ -2118,13 +2764,13 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="92">
+      <c r="B27" s="52">
         <v>302</v>
       </c>
-      <c r="C27" s="113"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="91" t="s">
+      <c r="C27" s="133"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="35" t="s">
         <v>35</v>
       </c>
       <c r="G27" s="1"/>
@@ -2136,13 +2782,13 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="92">
+      <c r="B28" s="52">
         <v>303</v>
       </c>
-      <c r="C28" s="113"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="90" t="s">
+      <c r="C28" s="133"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="36" t="s">
         <v>36</v>
       </c>
       <c r="G28" s="1"/>
@@ -2154,13 +2800,13 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="92">
+      <c r="B29" s="52">
         <v>304</v>
       </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="133"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="34" t="s">
         <v>37</v>
       </c>
       <c r="G29" s="1"/>
@@ -2172,13 +2818,13 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="92">
+      <c r="B30" s="52">
         <v>305</v>
       </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="14" t="s">
+      <c r="C30" s="133"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="34" t="s">
         <v>38</v>
       </c>
       <c r="G30" s="1"/>
@@ -2190,13 +2836,13 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="92">
+      <c r="B31" s="52">
         <v>306</v>
       </c>
-      <c r="C31" s="113"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="14" t="s">
+      <c r="C31" s="133"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="34" t="s">
         <v>39</v>
       </c>
       <c r="G31" s="1"/>
@@ -2208,13 +2854,13 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="92">
+      <c r="B32" s="52">
         <v>307</v>
       </c>
-      <c r="C32" s="113"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="14" t="s">
+      <c r="C32" s="133"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G32" s="1"/>
@@ -2226,13 +2872,13 @@
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="92">
+      <c r="B33" s="52">
         <v>308</v>
       </c>
-      <c r="C33" s="113"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="14" t="s">
+      <c r="C33" s="133"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="34" t="s">
         <v>41</v>
       </c>
       <c r="G33" s="1"/>
@@ -2244,13 +2890,13 @@
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="92">
+      <c r="B34" s="52">
         <v>309</v>
       </c>
-      <c r="C34" s="113"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="14" t="s">
+      <c r="C34" s="133"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="34" t="s">
         <v>42</v>
       </c>
       <c r="G34" s="1"/>
@@ -2262,13 +2908,13 @@
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="92">
+      <c r="B35" s="52">
         <v>310</v>
       </c>
-      <c r="C35" s="113"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="14" t="s">
+      <c r="C35" s="133"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="34" t="s">
         <v>43</v>
       </c>
       <c r="G35" s="1"/>
@@ -2280,13 +2926,13 @@
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="92">
+      <c r="B36" s="52">
         <v>311</v>
       </c>
-      <c r="C36" s="113"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="14" t="s">
+      <c r="C36" s="133"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="34" t="s">
         <v>44</v>
       </c>
       <c r="G36" s="1"/>
@@ -2298,13 +2944,13 @@
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="92">
+      <c r="B37" s="52">
         <v>312</v>
       </c>
-      <c r="C37" s="114"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="12" t="s">
+      <c r="C37" s="134"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="37" t="s">
         <v>45</v>
       </c>
       <c r="G37" s="1"/>
@@ -2316,19 +2962,19 @@
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="108">
+      <c r="B38" s="51">
         <v>401</v>
       </c>
-      <c r="C38" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="109" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="30" t="s">
+      <c r="C38" s="132" t="s">
+        <v>313</v>
+      </c>
+      <c r="D38" s="121" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="34" t="s">
         <v>47</v>
       </c>
       <c r="G38" s="1"/>
@@ -2340,13 +2986,13 @@
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="108">
+      <c r="B39" s="51">
         <v>402</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="14" t="s">
+      <c r="C39" s="133"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="34" t="s">
         <v>48</v>
       </c>
       <c r="G39" s="1"/>
@@ -2358,13 +3004,13 @@
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="108">
+      <c r="B40" s="51">
         <v>403</v>
       </c>
-      <c r="C40" s="76"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="14" t="s">
+      <c r="C40" s="133"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="34" t="s">
         <v>49</v>
       </c>
       <c r="G40" s="1"/>
@@ -2376,13 +3022,13 @@
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="108">
+      <c r="B41" s="51">
         <v>404</v>
       </c>
-      <c r="C41" s="76"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="14" t="s">
+      <c r="C41" s="133"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="34" t="s">
         <v>50</v>
       </c>
       <c r="G41" s="1"/>
@@ -2394,13 +3040,13 @@
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="108">
+      <c r="B42" s="51">
         <v>405</v>
       </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="14" t="s">
+      <c r="C42" s="133"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="34" t="s">
         <v>51</v>
       </c>
       <c r="G42" s="1"/>
@@ -2412,13 +3058,13 @@
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="108">
+      <c r="B43" s="51">
         <v>406</v>
       </c>
-      <c r="C43" s="76"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="14" t="s">
+      <c r="C43" s="133"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="34" t="s">
         <v>52</v>
       </c>
       <c r="G43" s="1"/>
@@ -2430,13 +3076,13 @@
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="108">
+      <c r="B44" s="51">
         <v>407</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="14" t="s">
+      <c r="C44" s="133"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="34" t="s">
         <v>53</v>
       </c>
       <c r="G44" s="1"/>
@@ -2448,13 +3094,13 @@
       <c r="M44" s="1"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="108">
+      <c r="B45" s="51">
         <v>408</v>
       </c>
-      <c r="C45" s="76"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="12" t="s">
+      <c r="C45" s="133"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="37" t="s">
         <v>54</v>
       </c>
       <c r="G45" s="1"/>
@@ -2466,13 +3112,13 @@
       <c r="M45" s="1"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="108">
+      <c r="B46" s="51">
         <v>409</v>
       </c>
-      <c r="C46" s="76"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="14" t="s">
+      <c r="C46" s="133"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="34" t="s">
         <v>55</v>
       </c>
       <c r="G46" s="1"/>
@@ -2484,13 +3130,13 @@
       <c r="M46" s="1"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="108">
+      <c r="B47" s="51">
         <v>410</v>
       </c>
-      <c r="C47" s="76"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="14" t="s">
+      <c r="C47" s="133"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="34" t="s">
         <v>56</v>
       </c>
       <c r="G47" s="1"/>
@@ -2502,13 +3148,13 @@
       <c r="M47" s="1"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="108">
+      <c r="B48" s="51">
         <v>411</v>
       </c>
-      <c r="C48" s="76"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="14" t="s">
+      <c r="C48" s="133"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="34" t="s">
         <v>57</v>
       </c>
       <c r="G48" s="1"/>
@@ -2520,13 +3166,13 @@
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="108">
+      <c r="B49" s="51">
         <v>412</v>
       </c>
-      <c r="C49" s="76"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="14" t="s">
+      <c r="C49" s="133"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="34" t="s">
         <v>58</v>
       </c>
       <c r="G49" s="1"/>
@@ -2538,13 +3184,13 @@
       <c r="M49" s="1"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="108">
+      <c r="B50" s="51">
         <v>413</v>
       </c>
-      <c r="C50" s="76"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="14" t="s">
+      <c r="C50" s="133"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="34" t="s">
         <v>59</v>
       </c>
       <c r="G50" s="1"/>
@@ -2556,13 +3202,13 @@
       <c r="M50" s="1"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="108">
+      <c r="B51" s="51">
         <v>414</v>
       </c>
-      <c r="C51" s="76"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="14" t="s">
+      <c r="C51" s="133"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="34" t="s">
         <v>60</v>
       </c>
       <c r="G51" s="1"/>
@@ -2574,13 +3220,13 @@
       <c r="M51" s="1"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="108">
+      <c r="B52" s="51">
         <v>415</v>
       </c>
-      <c r="C52" s="76"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="14" t="s">
+      <c r="C52" s="133"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="34" t="s">
         <v>40</v>
       </c>
       <c r="G52" s="1"/>
@@ -2592,13 +3238,13 @@
       <c r="M52" s="1"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="108">
+      <c r="B53" s="51">
         <v>416</v>
       </c>
-      <c r="C53" s="76"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="14" t="s">
+      <c r="C53" s="133"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="34" t="s">
         <v>61</v>
       </c>
       <c r="G53" s="1"/>
@@ -2610,13 +3256,13 @@
       <c r="M53" s="1"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="108">
+      <c r="B54" s="51">
         <v>417</v>
       </c>
-      <c r="C54" s="76"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="14" t="s">
+      <c r="C54" s="133"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="34" t="s">
         <v>62</v>
       </c>
       <c r="G54" s="1"/>
@@ -2628,13 +3274,13 @@
       <c r="M54" s="1"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="108">
+      <c r="B55" s="51">
         <v>418</v>
       </c>
-      <c r="C55" s="76"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="14" t="s">
+      <c r="C55" s="133"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="34" t="s">
         <v>63</v>
       </c>
       <c r="G55" s="1"/>
@@ -2646,13 +3292,13 @@
       <c r="M55" s="1"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="108">
+      <c r="B56" s="51">
         <v>419</v>
       </c>
-      <c r="C56" s="76"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="14" t="s">
+      <c r="C56" s="133"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="34" t="s">
         <v>43</v>
       </c>
       <c r="G56" s="1"/>
@@ -2664,13 +3310,13 @@
       <c r="M56" s="1"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="108">
+      <c r="B57" s="51">
         <v>420</v>
       </c>
-      <c r="C57" s="76"/>
-      <c r="D57" s="110"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="21" t="s">
+      <c r="C57" s="133"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="109"/>
+      <c r="F57" s="34" t="s">
         <v>64</v>
       </c>
       <c r="G57" s="1"/>
@@ -2682,13 +3328,13 @@
       <c r="M57" s="1"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="108">
+      <c r="B58" s="51">
         <v>421</v>
       </c>
-      <c r="C58" s="76"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="21" t="s">
+      <c r="C58" s="133"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="34" t="s">
         <v>65</v>
       </c>
       <c r="G58" s="1"/>
@@ -2700,13 +3346,13 @@
       <c r="M58" s="1"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="108">
+      <c r="B59" s="51">
         <v>422</v>
       </c>
-      <c r="C59" s="76"/>
-      <c r="D59" s="110"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="14" t="s">
+      <c r="C59" s="133"/>
+      <c r="D59" s="121"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="34" t="s">
         <v>66</v>
       </c>
       <c r="G59" s="1"/>
@@ -2718,13 +3364,13 @@
       <c r="M59" s="1"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="108">
+      <c r="B60" s="51">
         <v>423</v>
       </c>
-      <c r="C60" s="77"/>
-      <c r="D60" s="111"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="21" t="s">
+      <c r="C60" s="134"/>
+      <c r="D60" s="121"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="34" t="s">
         <v>67</v>
       </c>
       <c r="G60" s="1"/>
@@ -2736,17 +3382,19 @@
       <c r="M60" s="1"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="33">
+      <c r="B61" s="41">
         <v>501</v>
       </c>
-      <c r="C61" s="71"/>
-      <c r="D61" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E61" s="34" t="s">
+      <c r="C61" s="135" t="s">
+        <v>313</v>
+      </c>
+      <c r="D61" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="38" t="s">
         <v>69</v>
       </c>
       <c r="G61" s="1"/>
@@ -2758,13 +3406,13 @@
       <c r="M61" s="1"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="33">
+      <c r="B62" s="41">
         <v>502</v>
       </c>
-      <c r="C62" s="72"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="22" t="s">
+      <c r="C62" s="63"/>
+      <c r="D62" s="122"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="38" t="s">
         <v>70</v>
       </c>
       <c r="G62" s="1"/>
@@ -2776,13 +3424,13 @@
       <c r="M62" s="1"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="33">
+      <c r="B63" s="41">
         <v>503</v>
       </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="22" t="s">
+      <c r="C63" s="63"/>
+      <c r="D63" s="122"/>
+      <c r="E63" s="110"/>
+      <c r="F63" s="38" t="s">
         <v>71</v>
       </c>
       <c r="G63" s="1"/>
@@ -2794,13 +3442,13 @@
       <c r="M63" s="1"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="33">
+      <c r="B64" s="41">
         <v>504</v>
       </c>
-      <c r="C64" s="72"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="22" t="s">
+      <c r="C64" s="63"/>
+      <c r="D64" s="122"/>
+      <c r="E64" s="110"/>
+      <c r="F64" s="38" t="s">
         <v>72</v>
       </c>
       <c r="G64" s="1"/>
@@ -2812,13 +3460,13 @@
       <c r="M64" s="1"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="33">
+      <c r="B65" s="41">
         <v>505</v>
       </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="22" t="s">
+      <c r="C65" s="63"/>
+      <c r="D65" s="122"/>
+      <c r="E65" s="110"/>
+      <c r="F65" s="38" t="s">
         <v>73</v>
       </c>
       <c r="G65" s="1"/>
@@ -2830,13 +3478,13 @@
       <c r="M65" s="1"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="33">
+      <c r="B66" s="41">
         <v>506</v>
       </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="22" t="s">
+      <c r="C66" s="63"/>
+      <c r="D66" s="122"/>
+      <c r="E66" s="110"/>
+      <c r="F66" s="38" t="s">
         <v>74</v>
       </c>
       <c r="G66" s="1"/>
@@ -2848,13 +3496,13 @@
       <c r="M66" s="1"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="33">
+      <c r="B67" s="41">
         <v>507</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="22" t="s">
+      <c r="C67" s="63"/>
+      <c r="D67" s="122"/>
+      <c r="E67" s="110"/>
+      <c r="F67" s="38" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="1"/>
@@ -2866,13 +3514,13 @@
       <c r="M67" s="1"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="33">
+      <c r="B68" s="41">
         <v>508</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="22" t="s">
+      <c r="C68" s="63"/>
+      <c r="D68" s="122"/>
+      <c r="E68" s="110"/>
+      <c r="F68" s="38" t="s">
         <v>75</v>
       </c>
       <c r="G68" s="1"/>
@@ -2884,13 +3532,13 @@
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="33">
+      <c r="B69" s="41">
         <v>509</v>
       </c>
-      <c r="C69" s="72"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="22" t="s">
+      <c r="C69" s="63"/>
+      <c r="D69" s="122"/>
+      <c r="E69" s="110"/>
+      <c r="F69" s="38" t="s">
         <v>76</v>
       </c>
       <c r="G69" s="1"/>
@@ -2902,13 +3550,13 @@
       <c r="M69" s="1"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="33">
+      <c r="B70" s="41">
         <v>510</v>
       </c>
-      <c r="C70" s="72"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="22" t="s">
+      <c r="C70" s="63"/>
+      <c r="D70" s="122"/>
+      <c r="E70" s="110"/>
+      <c r="F70" s="38" t="s">
         <v>77</v>
       </c>
       <c r="G70" s="1"/>
@@ -2920,13 +3568,13 @@
       <c r="M70" s="1"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="33">
+      <c r="B71" s="41">
         <v>511</v>
       </c>
-      <c r="C71" s="73"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="22" t="s">
+      <c r="C71" s="63"/>
+      <c r="D71" s="122"/>
+      <c r="E71" s="110"/>
+      <c r="F71" s="38" t="s">
         <v>78</v>
       </c>
       <c r="G71" s="1"/>
@@ -2938,17 +3586,19 @@
       <c r="M71" s="1"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="23">
+      <c r="B72" s="40">
         <v>601</v>
       </c>
-      <c r="C72" s="80"/>
-      <c r="D72" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E72" s="24" t="s">
+      <c r="C72" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="D72" s="123" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="F72" s="25" t="s">
+      <c r="F72" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G72" s="1"/>
@@ -2960,13 +3610,13 @@
       <c r="M72" s="1"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="23">
+      <c r="B73" s="17">
         <v>602</v>
       </c>
-      <c r="C73" s="81"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="25" t="s">
+      <c r="C73" s="59"/>
+      <c r="D73" s="123"/>
+      <c r="E73" s="111"/>
+      <c r="F73" s="10" t="s">
         <v>81</v>
       </c>
       <c r="G73" s="1"/>
@@ -2978,13 +3628,13 @@
       <c r="M73" s="1"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="23">
+      <c r="B74" s="17">
         <v>603</v>
       </c>
-      <c r="C74" s="81"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="25" t="s">
+      <c r="C74" s="59"/>
+      <c r="D74" s="123"/>
+      <c r="E74" s="111"/>
+      <c r="F74" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G74" s="1"/>
@@ -2996,13 +3646,13 @@
       <c r="M74" s="1"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="23">
+      <c r="B75" s="17">
         <v>604</v>
       </c>
-      <c r="C75" s="81"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="25" t="s">
+      <c r="C75" s="59"/>
+      <c r="D75" s="123"/>
+      <c r="E75" s="111"/>
+      <c r="F75" s="10" t="s">
         <v>82</v>
       </c>
       <c r="G75" s="1"/>
@@ -3014,13 +3664,13 @@
       <c r="M75" s="1"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="23">
+      <c r="B76" s="17">
         <v>605</v>
       </c>
-      <c r="C76" s="81"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="25" t="s">
+      <c r="C76" s="59"/>
+      <c r="D76" s="123"/>
+      <c r="E76" s="111"/>
+      <c r="F76" s="10" t="s">
         <v>83</v>
       </c>
       <c r="G76" s="1"/>
@@ -3032,13 +3682,13 @@
       <c r="M76" s="1"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="23">
+      <c r="B77" s="17">
         <v>606</v>
       </c>
-      <c r="C77" s="81"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="25" t="s">
+      <c r="C77" s="59"/>
+      <c r="D77" s="123"/>
+      <c r="E77" s="111"/>
+      <c r="F77" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G77" s="1"/>
@@ -3050,13 +3700,13 @@
       <c r="M77" s="1"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="23">
+      <c r="B78" s="17">
         <v>606</v>
       </c>
-      <c r="C78" s="81"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="25" t="s">
+      <c r="C78" s="59"/>
+      <c r="D78" s="123"/>
+      <c r="E78" s="111"/>
+      <c r="F78" s="10" t="s">
         <v>84</v>
       </c>
       <c r="G78" s="1"/>
@@ -3068,13 +3718,13 @@
       <c r="M78" s="1"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="23">
+      <c r="B79" s="17">
         <v>606</v>
       </c>
-      <c r="C79" s="81"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="25" t="s">
+      <c r="C79" s="59"/>
+      <c r="D79" s="123"/>
+      <c r="E79" s="111"/>
+      <c r="F79" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G79" s="1"/>
@@ -3086,13 +3736,13 @@
       <c r="M79" s="1"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="23">
+      <c r="B80" s="17">
         <v>606</v>
       </c>
-      <c r="C80" s="81"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="25" t="s">
+      <c r="C80" s="59"/>
+      <c r="D80" s="123"/>
+      <c r="E80" s="111"/>
+      <c r="F80" s="10" t="s">
         <v>85</v>
       </c>
       <c r="G80" s="3"/>
@@ -3104,13 +3754,13 @@
       <c r="M80" s="1"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="23">
+      <c r="B81" s="17">
         <v>606</v>
       </c>
-      <c r="C81" s="82"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="25" t="s">
+      <c r="C81" s="61"/>
+      <c r="D81" s="124"/>
+      <c r="E81" s="112"/>
+      <c r="F81" s="10" t="s">
         <v>86</v>
       </c>
       <c r="G81" s="1"/>
@@ -3122,17 +3772,19 @@
       <c r="M81" s="1"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="37">
+      <c r="B82" s="18">
         <v>701</v>
       </c>
-      <c r="C82" s="80"/>
-      <c r="D82" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="E82" s="39" t="s">
+      <c r="C82" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="D82" s="125" t="s">
+        <v>116</v>
+      </c>
+      <c r="E82" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="F82" s="25" t="s">
+      <c r="F82" s="10" t="s">
         <v>88</v>
       </c>
       <c r="G82" s="1"/>
@@ -3144,13 +3796,13 @@
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B83" s="37">
+      <c r="B83" s="18">
         <v>702</v>
       </c>
-      <c r="C83" s="81"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="25" t="s">
+      <c r="C83" s="59"/>
+      <c r="D83" s="126"/>
+      <c r="E83" s="138"/>
+      <c r="F83" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G83" s="1"/>
@@ -3162,13 +3814,13 @@
       <c r="M83" s="1"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84" s="38">
+      <c r="B84" s="19">
         <v>703</v>
       </c>
-      <c r="C84" s="81"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="25" t="s">
+      <c r="C84" s="61"/>
+      <c r="D84" s="126"/>
+      <c r="E84" s="138"/>
+      <c r="F84" s="10" t="s">
         <v>90</v>
       </c>
       <c r="G84" s="1"/>
@@ -3180,17 +3832,19 @@
       <c r="M84" s="1"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B85" s="41">
+      <c r="B85" s="20">
         <v>801</v>
       </c>
-      <c r="C85" s="83"/>
-      <c r="D85" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="E85" s="84" t="s">
+      <c r="C85" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="D85" s="136" t="s">
+        <v>117</v>
+      </c>
+      <c r="E85" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="F85" s="25" t="s">
+      <c r="F85" s="10" t="s">
         <v>93</v>
       </c>
       <c r="G85" s="1"/>
@@ -3202,13 +3856,13 @@
       <c r="M85" s="1"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="42">
+      <c r="B86" s="21">
         <v>802</v>
       </c>
-      <c r="C86" s="83"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="25" t="s">
+      <c r="C86" s="59"/>
+      <c r="D86" s="136"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G86" s="1"/>
@@ -3220,13 +3874,13 @@
       <c r="M86" s="1"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="41">
+      <c r="B87" s="20">
         <v>803</v>
       </c>
-      <c r="C87" s="83"/>
-      <c r="D87" s="84"/>
-      <c r="E87" s="84"/>
-      <c r="F87" s="25" t="s">
+      <c r="C87" s="59"/>
+      <c r="D87" s="136"/>
+      <c r="E87" s="131"/>
+      <c r="F87" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G87" s="1"/>
@@ -3238,13 +3892,13 @@
       <c r="M87" s="1"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="42">
+      <c r="B88" s="21">
         <v>804</v>
       </c>
-      <c r="C88" s="83"/>
-      <c r="D88" s="84"/>
-      <c r="E88" s="84"/>
-      <c r="F88" s="28" t="s">
+      <c r="C88" s="59"/>
+      <c r="D88" s="136"/>
+      <c r="E88" s="131"/>
+      <c r="F88" s="10" t="s">
         <v>96</v>
       </c>
       <c r="G88" s="1"/>
@@ -3256,13 +3910,13 @@
       <c r="M88" s="1"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="41">
+      <c r="B89" s="20">
         <v>805</v>
       </c>
-      <c r="C89" s="83"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="84"/>
-      <c r="F89" s="28" t="s">
+      <c r="C89" s="59"/>
+      <c r="D89" s="136"/>
+      <c r="E89" s="131"/>
+      <c r="F89" s="10" t="s">
         <v>98</v>
       </c>
       <c r="G89" s="1"/>
@@ -3274,13 +3928,13 @@
       <c r="M89" s="1"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="42">
+      <c r="B90" s="21">
         <v>806</v>
       </c>
-      <c r="C90" s="83"/>
-      <c r="D90" s="84"/>
-      <c r="E90" s="84"/>
-      <c r="F90" s="28" t="s">
+      <c r="C90" s="59"/>
+      <c r="D90" s="136"/>
+      <c r="E90" s="131"/>
+      <c r="F90" s="10" t="s">
         <v>97</v>
       </c>
       <c r="G90" s="1"/>
@@ -3292,13 +3946,13 @@
       <c r="M90" s="1"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="41">
+      <c r="B91" s="20">
         <v>807</v>
       </c>
-      <c r="C91" s="83"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="84"/>
-      <c r="F91" s="28" t="s">
+      <c r="C91" s="59"/>
+      <c r="D91" s="136"/>
+      <c r="E91" s="131"/>
+      <c r="F91" s="10" t="s">
         <v>99</v>
       </c>
       <c r="G91" s="1"/>
@@ -3310,13 +3964,13 @@
       <c r="M91" s="1"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="42">
+      <c r="B92" s="21">
         <v>808</v>
       </c>
-      <c r="C92" s="83"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="84"/>
-      <c r="F92" s="28" t="s">
+      <c r="C92" s="59"/>
+      <c r="D92" s="136"/>
+      <c r="E92" s="131"/>
+      <c r="F92" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G92" s="1"/>
@@ -3328,13 +3982,13 @@
       <c r="M92" s="1"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="41">
+      <c r="B93" s="20">
         <v>809</v>
       </c>
-      <c r="C93" s="83"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="28" t="s">
+      <c r="C93" s="59"/>
+      <c r="D93" s="136"/>
+      <c r="E93" s="131"/>
+      <c r="F93" s="10" t="s">
         <v>100</v>
       </c>
       <c r="G93" s="1"/>
@@ -3346,13 +4000,13 @@
       <c r="M93" s="1"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="42">
+      <c r="B94" s="21">
         <v>810</v>
       </c>
-      <c r="C94" s="83"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="84"/>
-      <c r="F94" s="28" t="s">
+      <c r="C94" s="59"/>
+      <c r="D94" s="136"/>
+      <c r="E94" s="131"/>
+      <c r="F94" s="10" t="s">
         <v>101</v>
       </c>
       <c r="G94" s="1"/>
@@ -3364,13 +4018,13 @@
       <c r="M94" s="1"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="41">
+      <c r="B95" s="20">
         <v>811</v>
       </c>
-      <c r="C95" s="83"/>
-      <c r="D95" s="84"/>
-      <c r="E95" s="84"/>
-      <c r="F95" s="28" t="s">
+      <c r="C95" s="59"/>
+      <c r="D95" s="136"/>
+      <c r="E95" s="131"/>
+      <c r="F95" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G95" s="1"/>
@@ -3382,13 +4036,13 @@
       <c r="M95" s="1"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B96" s="42">
+      <c r="B96" s="21">
         <v>812</v>
       </c>
-      <c r="C96" s="83"/>
-      <c r="D96" s="84"/>
-      <c r="E96" s="84"/>
-      <c r="F96" s="28" t="s">
+      <c r="C96" s="59"/>
+      <c r="D96" s="136"/>
+      <c r="E96" s="131"/>
+      <c r="F96" s="10" t="s">
         <v>103</v>
       </c>
       <c r="G96" s="1"/>
@@ -3400,14 +4054,14 @@
       <c r="M96" s="1"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B97" s="41">
+      <c r="B97" s="20">
         <v>813</v>
       </c>
-      <c r="C97" s="83"/>
-      <c r="D97" s="84"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="28" t="s">
-        <v>139</v>
+      <c r="C97" s="59"/>
+      <c r="D97" s="136"/>
+      <c r="E97" s="131"/>
+      <c r="F97" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="3"/>
@@ -3418,13 +4072,13 @@
       <c r="M97" s="1"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B98" s="42">
+      <c r="B98" s="21">
         <v>814</v>
       </c>
-      <c r="C98" s="83"/>
-      <c r="D98" s="84"/>
-      <c r="E98" s="84"/>
-      <c r="F98" s="28" t="s">
+      <c r="C98" s="59"/>
+      <c r="D98" s="136"/>
+      <c r="E98" s="131"/>
+      <c r="F98" s="10" t="s">
         <v>104</v>
       </c>
       <c r="G98" s="1"/>
@@ -3436,13 +4090,13 @@
       <c r="M98" s="1"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B99" s="41">
+      <c r="B99" s="20">
         <v>815</v>
       </c>
-      <c r="C99" s="83"/>
-      <c r="D99" s="84"/>
-      <c r="E99" s="84"/>
-      <c r="F99" s="28" t="s">
+      <c r="C99" s="59"/>
+      <c r="D99" s="136"/>
+      <c r="E99" s="131"/>
+      <c r="F99" s="10" t="s">
         <v>60</v>
       </c>
       <c r="G99" s="1"/>
@@ -3454,13 +4108,13 @@
       <c r="M99" s="1"/>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B100" s="42">
+      <c r="B100" s="21">
         <v>816</v>
       </c>
-      <c r="C100" s="83"/>
-      <c r="D100" s="84"/>
-      <c r="E100" s="84"/>
-      <c r="F100" s="28" t="s">
+      <c r="C100" s="59"/>
+      <c r="D100" s="136"/>
+      <c r="E100" s="131"/>
+      <c r="F100" s="10" t="s">
         <v>105</v>
       </c>
       <c r="G100" s="1"/>
@@ -3472,14 +4126,14 @@
       <c r="M100" s="1"/>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B101" s="41">
+      <c r="B101" s="20">
         <v>817</v>
       </c>
-      <c r="C101" s="83"/>
-      <c r="D101" s="84"/>
-      <c r="E101" s="84"/>
-      <c r="F101" s="28" t="s">
-        <v>135</v>
+      <c r="C101" s="59"/>
+      <c r="D101" s="136"/>
+      <c r="E101" s="131"/>
+      <c r="F101" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="3"/>
@@ -3490,14 +4144,14 @@
       <c r="M101" s="1"/>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B102" s="42">
+      <c r="B102" s="21">
         <v>818</v>
       </c>
-      <c r="C102" s="83"/>
-      <c r="D102" s="84"/>
-      <c r="E102" s="84"/>
-      <c r="F102" s="28" t="s">
-        <v>136</v>
+      <c r="C102" s="59"/>
+      <c r="D102" s="136"/>
+      <c r="E102" s="131"/>
+      <c r="F102" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="3"/>
@@ -3508,14 +4162,14 @@
       <c r="M102" s="1"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="41">
+      <c r="B103" s="20">
         <v>819</v>
       </c>
-      <c r="C103" s="83"/>
-      <c r="D103" s="84"/>
-      <c r="E103" s="84"/>
-      <c r="F103" s="28" t="s">
-        <v>137</v>
+      <c r="C103" s="59"/>
+      <c r="D103" s="136"/>
+      <c r="E103" s="131"/>
+      <c r="F103" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="3"/>
@@ -3526,14 +4180,14 @@
       <c r="M103" s="1"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B104" s="42">
+      <c r="B104" s="21">
         <v>820</v>
       </c>
-      <c r="C104" s="83"/>
-      <c r="D104" s="84"/>
-      <c r="E104" s="84"/>
-      <c r="F104" s="28" t="s">
-        <v>138</v>
+      <c r="C104" s="59"/>
+      <c r="D104" s="136"/>
+      <c r="E104" s="131"/>
+      <c r="F104" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="3"/>
@@ -3544,14 +4198,14 @@
       <c r="M104" s="1"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B105" s="41">
+      <c r="B105" s="20">
         <v>821</v>
       </c>
-      <c r="C105" s="83"/>
-      <c r="D105" s="84"/>
-      <c r="E105" s="84"/>
-      <c r="F105" s="28" t="s">
-        <v>140</v>
+      <c r="C105" s="59"/>
+      <c r="D105" s="136"/>
+      <c r="E105" s="131"/>
+      <c r="F105" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="3"/>
@@ -3562,14 +4216,14 @@
       <c r="M105" s="1"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B106" s="42">
+      <c r="B106" s="21">
         <v>822</v>
       </c>
-      <c r="C106" s="83"/>
-      <c r="D106" s="84"/>
-      <c r="E106" s="84"/>
-      <c r="F106" s="28" t="s">
-        <v>141</v>
+      <c r="C106" s="59"/>
+      <c r="D106" s="136"/>
+      <c r="E106" s="131"/>
+      <c r="F106" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="3"/>
@@ -3580,14 +4234,14 @@
       <c r="M106" s="1"/>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B107" s="41">
+      <c r="B107" s="20">
         <v>823</v>
       </c>
-      <c r="C107" s="83"/>
-      <c r="D107" s="84"/>
-      <c r="E107" s="84"/>
-      <c r="F107" s="28" t="s">
-        <v>145</v>
+      <c r="C107" s="59"/>
+      <c r="D107" s="136"/>
+      <c r="E107" s="131"/>
+      <c r="F107" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="3"/>
@@ -3598,14 +4252,14 @@
       <c r="M107" s="1"/>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B108" s="42">
+      <c r="B108" s="21">
         <v>824</v>
       </c>
-      <c r="C108" s="83"/>
-      <c r="D108" s="84"/>
-      <c r="E108" s="84"/>
-      <c r="F108" s="28" t="s">
-        <v>142</v>
+      <c r="C108" s="59"/>
+      <c r="D108" s="136"/>
+      <c r="E108" s="131"/>
+      <c r="F108" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="3"/>
@@ -3616,14 +4270,14 @@
       <c r="M108" s="1"/>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B109" s="41">
+      <c r="B109" s="20">
         <v>825</v>
       </c>
-      <c r="C109" s="83"/>
-      <c r="D109" s="84"/>
-      <c r="E109" s="84"/>
-      <c r="F109" s="28" t="s">
-        <v>143</v>
+      <c r="C109" s="59"/>
+      <c r="D109" s="136"/>
+      <c r="E109" s="131"/>
+      <c r="F109" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="3"/>
@@ -3634,13 +4288,13 @@
       <c r="M109" s="1"/>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B110" s="42">
+      <c r="B110" s="21">
         <v>826</v>
       </c>
-      <c r="C110" s="83"/>
-      <c r="D110" s="84"/>
-      <c r="E110" s="84"/>
-      <c r="F110" s="28" t="s">
+      <c r="C110" s="59"/>
+      <c r="D110" s="136"/>
+      <c r="E110" s="131"/>
+      <c r="F110" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G110" s="1"/>
@@ -3652,14 +4306,14 @@
       <c r="M110" s="1"/>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B111" s="41">
+      <c r="B111" s="20">
         <v>827</v>
       </c>
-      <c r="C111" s="83"/>
-      <c r="D111" s="84"/>
-      <c r="E111" s="84"/>
-      <c r="F111" s="28" t="s">
-        <v>144</v>
+      <c r="C111" s="59"/>
+      <c r="D111" s="136"/>
+      <c r="E111" s="131"/>
+      <c r="F111" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="3"/>
@@ -3670,14 +4324,14 @@
       <c r="M111" s="1"/>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B112" s="42">
+      <c r="B112" s="21">
         <v>828</v>
       </c>
-      <c r="C112" s="83"/>
-      <c r="D112" s="84"/>
-      <c r="E112" s="84"/>
-      <c r="F112" s="28" t="s">
-        <v>146</v>
+      <c r="C112" s="59"/>
+      <c r="D112" s="136"/>
+      <c r="E112" s="131"/>
+      <c r="F112" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="3"/>
@@ -3688,14 +4342,14 @@
       <c r="M112" s="1"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="41">
+      <c r="B113" s="20">
         <v>829</v>
       </c>
-      <c r="C113" s="83"/>
-      <c r="D113" s="84"/>
-      <c r="E113" s="84"/>
-      <c r="F113" s="28" t="s">
-        <v>147</v>
+      <c r="C113" s="61"/>
+      <c r="D113" s="136"/>
+      <c r="E113" s="131"/>
+      <c r="F113" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="3"/>
@@ -3706,17 +4360,19 @@
       <c r="M113" s="1"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B114" s="85">
+      <c r="B114" s="22">
         <v>901</v>
       </c>
-      <c r="C114" s="80"/>
-      <c r="D114" s="88" t="s">
-        <v>120</v>
-      </c>
-      <c r="E114" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="F114" s="29" t="s">
+      <c r="C114" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="D114" s="127" t="s">
+        <v>118</v>
+      </c>
+      <c r="E114" s="129" t="s">
+        <v>144</v>
+      </c>
+      <c r="F114" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G114" s="1"/>
@@ -3728,13 +4384,13 @@
       <c r="M114" s="1"/>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B115" s="86">
+      <c r="B115" s="23">
         <v>902</v>
       </c>
-      <c r="C115" s="81"/>
-      <c r="D115" s="89"/>
-      <c r="E115" s="89"/>
-      <c r="F115" s="29" t="s">
+      <c r="C115" s="59"/>
+      <c r="D115" s="128"/>
+      <c r="E115" s="130"/>
+      <c r="F115" s="10" t="s">
         <v>74</v>
       </c>
       <c r="G115" s="1"/>
@@ -3746,14 +4402,14 @@
       <c r="M115" s="1"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B116" s="85">
+      <c r="B116" s="22">
         <v>903</v>
       </c>
-      <c r="C116" s="81"/>
-      <c r="D116" s="89"/>
-      <c r="E116" s="89"/>
-      <c r="F116" s="29" t="s">
-        <v>151</v>
+      <c r="C116" s="59"/>
+      <c r="D116" s="128"/>
+      <c r="E116" s="130"/>
+      <c r="F116" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="3"/>
@@ -3764,14 +4420,14 @@
       <c r="M116" s="1"/>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B117" s="86">
+      <c r="B117" s="23">
         <v>904</v>
       </c>
-      <c r="C117" s="81"/>
-      <c r="D117" s="89"/>
-      <c r="E117" s="89"/>
-      <c r="F117" s="29" t="s">
-        <v>150</v>
+      <c r="C117" s="59"/>
+      <c r="D117" s="128"/>
+      <c r="E117" s="130"/>
+      <c r="F117" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="3"/>
@@ -3782,14 +4438,14 @@
       <c r="M117" s="1"/>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B118" s="85">
+      <c r="B118" s="22">
         <v>905</v>
       </c>
-      <c r="C118" s="81"/>
-      <c r="D118" s="89"/>
-      <c r="E118" s="89"/>
-      <c r="F118" s="29" t="s">
-        <v>152</v>
+      <c r="C118" s="59"/>
+      <c r="D118" s="128"/>
+      <c r="E118" s="130"/>
+      <c r="F118" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="3"/>
@@ -3800,14 +4456,14 @@
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B119" s="86">
+      <c r="B119" s="23">
         <v>906</v>
       </c>
-      <c r="C119" s="81"/>
-      <c r="D119" s="89"/>
-      <c r="E119" s="89"/>
-      <c r="F119" s="29" t="s">
-        <v>153</v>
+      <c r="C119" s="59"/>
+      <c r="D119" s="128"/>
+      <c r="E119" s="130"/>
+      <c r="F119" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="3"/>
@@ -3818,14 +4474,14 @@
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B120" s="85">
+      <c r="B120" s="22">
         <v>907</v>
       </c>
-      <c r="C120" s="81"/>
-      <c r="D120" s="89"/>
-      <c r="E120" s="89"/>
-      <c r="F120" s="29" t="s">
-        <v>154</v>
+      <c r="C120" s="59"/>
+      <c r="D120" s="128"/>
+      <c r="E120" s="130"/>
+      <c r="F120" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="3"/>
@@ -3836,14 +4492,14 @@
       <c r="M120" s="1"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B121" s="86">
+      <c r="B121" s="23">
         <v>908</v>
       </c>
-      <c r="C121" s="81"/>
-      <c r="D121" s="89"/>
-      <c r="E121" s="89"/>
-      <c r="F121" s="29" t="s">
-        <v>155</v>
+      <c r="C121" s="59"/>
+      <c r="D121" s="128"/>
+      <c r="E121" s="130"/>
+      <c r="F121" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="3"/>
@@ -3854,14 +4510,14 @@
       <c r="M121" s="1"/>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B122" s="85">
+      <c r="B122" s="22">
         <v>909</v>
       </c>
-      <c r="C122" s="81"/>
-      <c r="D122" s="89"/>
-      <c r="E122" s="89"/>
-      <c r="F122" s="29" t="s">
-        <v>156</v>
+      <c r="C122" s="59"/>
+      <c r="D122" s="128"/>
+      <c r="E122" s="130"/>
+      <c r="F122" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="3"/>
@@ -3872,14 +4528,14 @@
       <c r="M122" s="1"/>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B123" s="86">
+      <c r="B123" s="23">
         <v>910</v>
       </c>
-      <c r="C123" s="81"/>
-      <c r="D123" s="89"/>
-      <c r="E123" s="89"/>
-      <c r="F123" s="29" t="s">
-        <v>158</v>
+      <c r="C123" s="59"/>
+      <c r="D123" s="128"/>
+      <c r="E123" s="130"/>
+      <c r="F123" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="3"/>
@@ -3890,14 +4546,14 @@
       <c r="M123" s="1"/>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B124" s="85">
+      <c r="B124" s="22">
         <v>911</v>
       </c>
-      <c r="C124" s="81"/>
-      <c r="D124" s="89"/>
-      <c r="E124" s="89"/>
-      <c r="F124" s="29" t="s">
-        <v>157</v>
+      <c r="C124" s="59"/>
+      <c r="D124" s="128"/>
+      <c r="E124" s="130"/>
+      <c r="F124" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="3"/>
@@ -3908,14 +4564,14 @@
       <c r="M124" s="1"/>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B125" s="86">
+      <c r="B125" s="24">
         <v>912</v>
       </c>
-      <c r="C125" s="82"/>
-      <c r="D125" s="87"/>
-      <c r="E125" s="87"/>
-      <c r="F125" s="29" t="s">
-        <v>159</v>
+      <c r="C125" s="61"/>
+      <c r="D125" s="128"/>
+      <c r="E125" s="130"/>
+      <c r="F125" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="3"/>
@@ -3926,20 +4582,22 @@
       <c r="M125" s="1"/>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B126" s="43"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="E126" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="F126" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="B126" s="25">
+        <v>1001</v>
+      </c>
+      <c r="C126" s="76" t="s">
+        <v>312</v>
+      </c>
+      <c r="D126" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="E126" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G126" s="1"/>
       <c r="H126" s="3"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -3948,12 +4606,14 @@
       <c r="M126" s="1"/>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B127" s="43"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="44"/>
-      <c r="E127" s="43"/>
-      <c r="F127" s="29" t="s">
-        <v>162</v>
+      <c r="B127" s="25">
+        <v>1002</v>
+      </c>
+      <c r="C127" s="59"/>
+      <c r="D127" s="98"/>
+      <c r="E127" s="101"/>
+      <c r="F127" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="3"/>
@@ -3964,12 +4624,14 @@
       <c r="M127" s="1"/>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B128" s="43"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="44"/>
-      <c r="E128" s="43"/>
-      <c r="F128" s="29" t="s">
-        <v>163</v>
+      <c r="B128" s="25">
+        <v>1003</v>
+      </c>
+      <c r="C128" s="59"/>
+      <c r="D128" s="98"/>
+      <c r="E128" s="101"/>
+      <c r="F128" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="3"/>
@@ -3980,12 +4642,14 @@
       <c r="M128" s="1"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B129" s="43"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="44"/>
-      <c r="E129" s="43"/>
-      <c r="F129" s="29" t="s">
-        <v>164</v>
+      <c r="B129" s="25">
+        <v>1004</v>
+      </c>
+      <c r="C129" s="59"/>
+      <c r="D129" s="98"/>
+      <c r="E129" s="101"/>
+      <c r="F129" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="3"/>
@@ -3996,12 +4660,14 @@
       <c r="M129" s="1"/>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B130" s="43"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="44"/>
-      <c r="E130" s="43"/>
-      <c r="F130" s="29" t="s">
-        <v>165</v>
+      <c r="B130" s="25">
+        <v>1005</v>
+      </c>
+      <c r="C130" s="59"/>
+      <c r="D130" s="98"/>
+      <c r="E130" s="101"/>
+      <c r="F130" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="3"/>
@@ -4012,11 +4678,15 @@
       <c r="M130" s="1"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B131" s="43"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="44"/>
-      <c r="E131" s="43"/>
-      <c r="F131" s="29"/>
+      <c r="B131" s="25">
+        <v>1006</v>
+      </c>
+      <c r="C131" s="59"/>
+      <c r="D131" s="98"/>
+      <c r="E131" s="101"/>
+      <c r="F131" s="10" t="s">
+        <v>162</v>
+      </c>
       <c r="G131" s="1"/>
       <c r="H131" s="3"/>
       <c r="I131" s="1"/>
@@ -4026,11 +4696,15 @@
       <c r="M131" s="1"/>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B132" s="43"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="44"/>
-      <c r="E132" s="43"/>
-      <c r="F132" s="29"/>
+      <c r="B132" s="25">
+        <v>1007</v>
+      </c>
+      <c r="C132" s="59"/>
+      <c r="D132" s="98"/>
+      <c r="E132" s="101"/>
+      <c r="F132" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="G132" s="1"/>
       <c r="H132" s="3"/>
       <c r="I132" s="1"/>
@@ -4040,11 +4714,15 @@
       <c r="M132" s="1"/>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B133" s="43"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="44"/>
-      <c r="E133" s="43"/>
-      <c r="F133" s="29"/>
+      <c r="B133" s="25">
+        <v>1008</v>
+      </c>
+      <c r="C133" s="59"/>
+      <c r="D133" s="98"/>
+      <c r="E133" s="101"/>
+      <c r="F133" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="G133" s="1"/>
       <c r="H133" s="3"/>
       <c r="I133" s="1"/>
@@ -4054,13 +4732,15 @@
       <c r="M133" s="1"/>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B134" s="45"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E134" s="45"/>
-      <c r="F134" s="29"/>
+      <c r="B134" s="25">
+        <v>1009</v>
+      </c>
+      <c r="C134" s="59"/>
+      <c r="D134" s="98"/>
+      <c r="E134" s="101"/>
+      <c r="F134" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="G134" s="1"/>
       <c r="H134" s="3"/>
       <c r="I134" s="1"/>
@@ -4069,16 +4749,18 @@
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="47"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="E135" s="47"/>
-      <c r="F135" s="25"/>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B135" s="25">
+        <v>1010</v>
+      </c>
+      <c r="C135" s="59"/>
+      <c r="D135" s="98"/>
+      <c r="E135" s="101"/>
+      <c r="F135" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
+      <c r="H135" s="3"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -4086,15 +4768,17 @@
       <c r="M135" s="1"/>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B136" s="49"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="E136" s="49"/>
-      <c r="F136" s="25"/>
+      <c r="B136" s="25">
+        <v>1011</v>
+      </c>
+      <c r="C136" s="59"/>
+      <c r="D136" s="98"/>
+      <c r="E136" s="101"/>
+      <c r="F136" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
+      <c r="H136" s="3"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -4102,15 +4786,17 @@
       <c r="M136" s="1"/>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B137" s="51"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="E137" s="51"/>
-      <c r="F137" s="25"/>
+      <c r="B137" s="25">
+        <v>1012</v>
+      </c>
+      <c r="C137" s="59"/>
+      <c r="D137" s="98"/>
+      <c r="E137" s="101"/>
+      <c r="F137" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
+      <c r="H137" s="3"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
@@ -4118,15 +4804,17 @@
       <c r="M137" s="1"/>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B138" s="53"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="E138" s="53"/>
-      <c r="F138" s="25"/>
+      <c r="B138" s="25">
+        <v>1013</v>
+      </c>
+      <c r="C138" s="59"/>
+      <c r="D138" s="98"/>
+      <c r="E138" s="101"/>
+      <c r="F138" s="10" t="s">
+        <v>165</v>
+      </c>
       <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
+      <c r="H138" s="3"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
@@ -4134,15 +4822,17 @@
       <c r="M138" s="1"/>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B139" s="55"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="E139" s="55"/>
-      <c r="F139" s="25"/>
+      <c r="B139" s="25">
+        <v>1014</v>
+      </c>
+      <c r="C139" s="59"/>
+      <c r="D139" s="98"/>
+      <c r="E139" s="101"/>
+      <c r="F139" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
+      <c r="H139" s="3"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
@@ -4150,31 +4840,35 @@
       <c r="M139" s="1"/>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B140" s="57"/>
-      <c r="C140" s="74"/>
-      <c r="D140" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="E140" s="57"/>
-      <c r="F140" s="25"/>
+      <c r="B140" s="25">
+        <v>1015</v>
+      </c>
+      <c r="C140" s="59"/>
+      <c r="D140" s="98"/>
+      <c r="E140" s="101"/>
+      <c r="F140" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
+      <c r="H140" s="3"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
-      <c r="L140" s="3"/>
+      <c r="L140" s="1"/>
       <c r="M140" s="1"/>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B141" s="59"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="E141" s="59"/>
-      <c r="F141" s="25"/>
+      <c r="B141" s="25">
+        <v>1016</v>
+      </c>
+      <c r="C141" s="59"/>
+      <c r="D141" s="98"/>
+      <c r="E141" s="101"/>
+      <c r="F141" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
+      <c r="H141" s="3"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
@@ -4182,15 +4876,17 @@
       <c r="M141" s="1"/>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B142" s="61"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="E142" s="61"/>
-      <c r="F142" s="25"/>
+      <c r="B142" s="25">
+        <v>1017</v>
+      </c>
+      <c r="C142" s="59"/>
+      <c r="D142" s="98"/>
+      <c r="E142" s="101"/>
+      <c r="F142" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
+      <c r="H142" s="3"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
@@ -4198,15 +4894,17 @@
       <c r="M142" s="1"/>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B143" s="63"/>
-      <c r="C143" s="74"/>
-      <c r="D143" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="E143" s="63"/>
-      <c r="F143" s="25"/>
+      <c r="B143" s="25">
+        <v>1018</v>
+      </c>
+      <c r="C143" s="59"/>
+      <c r="D143" s="98"/>
+      <c r="E143" s="101"/>
+      <c r="F143" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
+      <c r="H143" s="3"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
@@ -4214,15 +4912,17 @@
       <c r="M143" s="1"/>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B144" s="65"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="E144" s="65"/>
-      <c r="F144" s="25"/>
+      <c r="B144" s="25">
+        <v>1019</v>
+      </c>
+      <c r="C144" s="59"/>
+      <c r="D144" s="98"/>
+      <c r="E144" s="101"/>
+      <c r="F144" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
+      <c r="H144" s="3"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
@@ -4230,15 +4930,17 @@
       <c r="M144" s="1"/>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B145" s="67"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="E145" s="67"/>
-      <c r="F145" s="25"/>
+      <c r="B145" s="25">
+        <v>1020</v>
+      </c>
+      <c r="C145" s="59"/>
+      <c r="D145" s="98"/>
+      <c r="E145" s="101"/>
+      <c r="F145" s="10" t="s">
+        <v>170</v>
+      </c>
       <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
+      <c r="H145" s="3"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
@@ -4246,47 +4948,3007 @@
       <c r="M145" s="1"/>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B146" s="69"/>
-      <c r="C146" s="74"/>
-      <c r="D146" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="E146" s="69"/>
-      <c r="F146" s="25"/>
+      <c r="B146" s="25">
+        <v>1021</v>
+      </c>
+      <c r="C146" s="60"/>
+      <c r="D146" s="99"/>
+      <c r="E146" s="102"/>
+      <c r="F146" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
+      <c r="H146" s="3"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
     </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B147" s="26">
+        <v>1101</v>
+      </c>
+      <c r="C147" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="D147" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="E147" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="F147" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G147" s="1"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B148" s="26">
+        <v>1102</v>
+      </c>
+      <c r="C148" s="59"/>
+      <c r="D148" s="104"/>
+      <c r="E148" s="107"/>
+      <c r="F148" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G148" s="1"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+    </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H149" s="2"/>
+      <c r="B149" s="26">
+        <v>1103</v>
+      </c>
+      <c r="C149" s="59"/>
+      <c r="D149" s="104"/>
+      <c r="E149" s="107"/>
+      <c r="F149" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G149" s="1"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B150" s="26">
+        <v>1104</v>
+      </c>
+      <c r="C150" s="60"/>
+      <c r="D150" s="105"/>
+      <c r="E150" s="108"/>
+      <c r="F150" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G150" s="1"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="27">
+        <v>1201</v>
+      </c>
+      <c r="C151" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="D151" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="E151" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="27">
+        <v>1202</v>
+      </c>
+      <c r="C152" s="59"/>
+      <c r="D152" s="88"/>
+      <c r="E152" s="91"/>
+      <c r="F152" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+    </row>
+    <row r="153" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="27">
+        <v>1203</v>
+      </c>
+      <c r="C153" s="59"/>
+      <c r="D153" s="89"/>
+      <c r="E153" s="92"/>
+      <c r="F153" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B154" s="28">
+        <v>1301</v>
+      </c>
+      <c r="C154" s="59" t="s">
+        <v>312</v>
+      </c>
+      <c r="D154" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="E154" s="95" t="s">
+        <v>195</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B155" s="28">
+        <v>1302</v>
+      </c>
+      <c r="C155" s="59"/>
+      <c r="D155" s="94"/>
+      <c r="E155" s="96"/>
+      <c r="F155" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B156" s="28">
+        <v>1303</v>
+      </c>
+      <c r="C156" s="59"/>
+      <c r="D156" s="94"/>
+      <c r="E156" s="96"/>
+      <c r="F156" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B157" s="28">
+        <v>1304</v>
+      </c>
+      <c r="C157" s="59"/>
+      <c r="D157" s="94"/>
+      <c r="E157" s="96"/>
+      <c r="F157" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B158" s="28">
+        <v>1305</v>
+      </c>
+      <c r="C158" s="59"/>
+      <c r="D158" s="94"/>
+      <c r="E158" s="96"/>
+      <c r="F158" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B159" s="28">
+        <v>1306</v>
+      </c>
+      <c r="C159" s="59"/>
+      <c r="D159" s="94"/>
+      <c r="E159" s="96"/>
+      <c r="F159" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+    </row>
+    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B160" s="28">
+        <v>1307</v>
+      </c>
+      <c r="C160" s="59"/>
+      <c r="D160" s="94"/>
+      <c r="E160" s="96"/>
+      <c r="F160" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+    </row>
+    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B161" s="28">
+        <v>1308</v>
+      </c>
+      <c r="C161" s="59"/>
+      <c r="D161" s="94"/>
+      <c r="E161" s="96"/>
+      <c r="F161" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+    </row>
+    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B162" s="28">
+        <v>1309</v>
+      </c>
+      <c r="C162" s="59"/>
+      <c r="D162" s="94"/>
+      <c r="E162" s="96"/>
+      <c r="F162" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B163" s="28">
+        <v>1310</v>
+      </c>
+      <c r="C163" s="59"/>
+      <c r="D163" s="94"/>
+      <c r="E163" s="96"/>
+      <c r="F163" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B164" s="28">
+        <v>1311</v>
+      </c>
+      <c r="C164" s="59"/>
+      <c r="D164" s="94"/>
+      <c r="E164" s="96"/>
+      <c r="F164" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B165" s="28">
+        <v>1312</v>
+      </c>
+      <c r="C165" s="59"/>
+      <c r="D165" s="94"/>
+      <c r="E165" s="96"/>
+      <c r="F165" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B166" s="28">
+        <v>1313</v>
+      </c>
+      <c r="C166" s="59"/>
+      <c r="D166" s="94"/>
+      <c r="E166" s="96"/>
+      <c r="F166" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B167" s="28">
+        <v>1314</v>
+      </c>
+      <c r="C167" s="59"/>
+      <c r="D167" s="94"/>
+      <c r="E167" s="96"/>
+      <c r="F167" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+    </row>
+    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B168" s="28">
+        <v>1315</v>
+      </c>
+      <c r="C168" s="59"/>
+      <c r="D168" s="94"/>
+      <c r="E168" s="96"/>
+      <c r="F168" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+    </row>
+    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B169" s="28">
+        <v>1316</v>
+      </c>
+      <c r="C169" s="59"/>
+      <c r="D169" s="94"/>
+      <c r="E169" s="96"/>
+      <c r="F169" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+    </row>
+    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B170" s="28">
+        <v>1317</v>
+      </c>
+      <c r="C170" s="59"/>
+      <c r="D170" s="94"/>
+      <c r="E170" s="96"/>
+      <c r="F170" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B171" s="28">
+        <v>1318</v>
+      </c>
+      <c r="C171" s="59"/>
+      <c r="D171" s="94"/>
+      <c r="E171" s="96"/>
+      <c r="F171" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+    </row>
+    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B172" s="28">
+        <v>1319</v>
+      </c>
+      <c r="C172" s="59"/>
+      <c r="D172" s="94"/>
+      <c r="E172" s="96"/>
+      <c r="F172" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+    </row>
+    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B173" s="28">
+        <v>1320</v>
+      </c>
+      <c r="C173" s="59"/>
+      <c r="D173" s="94"/>
+      <c r="E173" s="96"/>
+      <c r="F173" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+    </row>
+    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B174" s="28">
+        <v>1321</v>
+      </c>
+      <c r="C174" s="59"/>
+      <c r="D174" s="94"/>
+      <c r="E174" s="96"/>
+      <c r="F174" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+    </row>
+    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B175" s="28">
+        <v>1322</v>
+      </c>
+      <c r="C175" s="59"/>
+      <c r="D175" s="94"/>
+      <c r="E175" s="96"/>
+      <c r="F175" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+    </row>
+    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B176" s="28">
+        <v>1323</v>
+      </c>
+      <c r="C176" s="59"/>
+      <c r="D176" s="94"/>
+      <c r="E176" s="96"/>
+      <c r="F176" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+    </row>
+    <row r="177" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B177" s="28">
+        <v>1324</v>
+      </c>
+      <c r="C177" s="59"/>
+      <c r="D177" s="94"/>
+      <c r="E177" s="96"/>
+      <c r="F177" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+    </row>
+    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B178" s="28">
+        <v>1325</v>
+      </c>
+      <c r="C178" s="59"/>
+      <c r="D178" s="94"/>
+      <c r="E178" s="96"/>
+      <c r="F178" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+    </row>
+    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B179" s="28">
+        <v>1326</v>
+      </c>
+      <c r="C179" s="59"/>
+      <c r="D179" s="94"/>
+      <c r="E179" s="96"/>
+      <c r="F179" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+    </row>
+    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B180" s="28">
+        <v>1327</v>
+      </c>
+      <c r="C180" s="59"/>
+      <c r="D180" s="94"/>
+      <c r="E180" s="96"/>
+      <c r="F180" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+    </row>
+    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B181" s="28">
+        <v>1328</v>
+      </c>
+      <c r="C181" s="59"/>
+      <c r="D181" s="94"/>
+      <c r="E181" s="96"/>
+      <c r="F181" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+    </row>
+    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B182" s="28">
+        <v>1329</v>
+      </c>
+      <c r="C182" s="59"/>
+      <c r="D182" s="94"/>
+      <c r="E182" s="96"/>
+      <c r="F182" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+    </row>
+    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B183" s="28">
+        <v>1330</v>
+      </c>
+      <c r="C183" s="59"/>
+      <c r="D183" s="94"/>
+      <c r="E183" s="96"/>
+      <c r="F183" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+    </row>
+    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B184" s="28">
+        <v>1331</v>
+      </c>
+      <c r="C184" s="59"/>
+      <c r="D184" s="94"/>
+      <c r="E184" s="96"/>
+      <c r="F184" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+    </row>
+    <row r="185" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B185" s="28">
+        <v>1332</v>
+      </c>
+      <c r="C185" s="59"/>
+      <c r="D185" s="94"/>
+      <c r="E185" s="96"/>
+      <c r="F185" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+    </row>
+    <row r="186" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B186" s="28">
+        <v>1333</v>
+      </c>
+      <c r="C186" s="59"/>
+      <c r="D186" s="94"/>
+      <c r="E186" s="96"/>
+      <c r="F186" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+    </row>
+    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B187" s="28">
+        <v>1334</v>
+      </c>
+      <c r="C187" s="59"/>
+      <c r="D187" s="94"/>
+      <c r="E187" s="96"/>
+      <c r="F187" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+    </row>
+    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B188" s="28">
+        <v>1335</v>
+      </c>
+      <c r="C188" s="59"/>
+      <c r="D188" s="94"/>
+      <c r="E188" s="96"/>
+      <c r="F188" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+    </row>
+    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B189" s="28">
+        <v>1336</v>
+      </c>
+      <c r="C189" s="59"/>
+      <c r="D189" s="94"/>
+      <c r="E189" s="96"/>
+      <c r="F189" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+    </row>
+    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B190" s="28">
+        <v>1337</v>
+      </c>
+      <c r="C190" s="59"/>
+      <c r="D190" s="94"/>
+      <c r="E190" s="96"/>
+      <c r="F190" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+    </row>
+    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B191" s="28">
+        <v>1338</v>
+      </c>
+      <c r="C191" s="59"/>
+      <c r="D191" s="94"/>
+      <c r="E191" s="96"/>
+      <c r="F191" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+    </row>
+    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B192" s="28">
+        <v>1339</v>
+      </c>
+      <c r="C192" s="59"/>
+      <c r="D192" s="94"/>
+      <c r="E192" s="96"/>
+      <c r="F192" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+    </row>
+    <row r="193" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B193" s="28">
+        <v>1340</v>
+      </c>
+      <c r="C193" s="59"/>
+      <c r="D193" s="94"/>
+      <c r="E193" s="96"/>
+      <c r="F193" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+    </row>
+    <row r="194" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B194" s="28">
+        <v>1341</v>
+      </c>
+      <c r="C194" s="59"/>
+      <c r="D194" s="94"/>
+      <c r="E194" s="96"/>
+      <c r="F194" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+    </row>
+    <row r="195" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B195" s="28">
+        <v>1342</v>
+      </c>
+      <c r="C195" s="59"/>
+      <c r="D195" s="94"/>
+      <c r="E195" s="96"/>
+      <c r="F195" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+    </row>
+    <row r="196" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B196" s="28">
+        <v>1343</v>
+      </c>
+      <c r="C196" s="59"/>
+      <c r="D196" s="94"/>
+      <c r="E196" s="96"/>
+      <c r="F196" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+    </row>
+    <row r="197" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B197" s="28">
+        <v>1344</v>
+      </c>
+      <c r="C197" s="59"/>
+      <c r="D197" s="94"/>
+      <c r="E197" s="96"/>
+      <c r="F197" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+    </row>
+    <row r="198" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B198" s="29">
+        <v>1345</v>
+      </c>
+      <c r="C198" s="61"/>
+      <c r="D198" s="94"/>
+      <c r="E198" s="96"/>
+      <c r="F198" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+    </row>
+    <row r="199" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B199" s="30">
+        <v>1401</v>
+      </c>
+      <c r="C199" s="76" t="s">
+        <v>312</v>
+      </c>
+      <c r="D199" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="E199" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="F199" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+    </row>
+    <row r="200" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B200" s="30">
+        <v>1402</v>
+      </c>
+      <c r="C200" s="59"/>
+      <c r="D200" s="75"/>
+      <c r="E200" s="74"/>
+      <c r="F200" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+    </row>
+    <row r="201" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B201" s="30">
+        <v>1403</v>
+      </c>
+      <c r="C201" s="59"/>
+      <c r="D201" s="75"/>
+      <c r="E201" s="74"/>
+      <c r="F201" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+    </row>
+    <row r="202" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B202" s="30">
+        <v>1404</v>
+      </c>
+      <c r="C202" s="60"/>
+      <c r="D202" s="75"/>
+      <c r="E202" s="74"/>
+      <c r="F202" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+    </row>
+    <row r="203" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B203" s="31">
+        <v>1501</v>
+      </c>
+      <c r="C203" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="D203" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="E203" s="81" t="s">
+        <v>217</v>
+      </c>
+      <c r="F203" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+    </row>
+    <row r="204" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B204" s="31">
+        <v>1502</v>
+      </c>
+      <c r="C204" s="59"/>
+      <c r="D204" s="85"/>
+      <c r="E204" s="82"/>
+      <c r="F204" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+    </row>
+    <row r="205" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B205" s="31">
+        <v>1503</v>
+      </c>
+      <c r="C205" s="59"/>
+      <c r="D205" s="85"/>
+      <c r="E205" s="82"/>
+      <c r="F205" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+    </row>
+    <row r="206" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B206" s="31">
+        <v>1504</v>
+      </c>
+      <c r="C206" s="59"/>
+      <c r="D206" s="85"/>
+      <c r="E206" s="82"/>
+      <c r="F206" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+    </row>
+    <row r="207" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B207" s="31">
+        <v>1505</v>
+      </c>
+      <c r="C207" s="59"/>
+      <c r="D207" s="85"/>
+      <c r="E207" s="82"/>
+      <c r="F207" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
+    </row>
+    <row r="208" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B208" s="31">
+        <v>1506</v>
+      </c>
+      <c r="C208" s="59"/>
+      <c r="D208" s="85"/>
+      <c r="E208" s="82"/>
+      <c r="F208" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+    </row>
+    <row r="209" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B209" s="31">
+        <v>1507</v>
+      </c>
+      <c r="C209" s="59"/>
+      <c r="D209" s="85"/>
+      <c r="E209" s="82"/>
+      <c r="F209" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+    </row>
+    <row r="210" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B210" s="31">
+        <v>1508</v>
+      </c>
+      <c r="C210" s="59"/>
+      <c r="D210" s="85"/>
+      <c r="E210" s="82"/>
+      <c r="F210" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+    </row>
+    <row r="211" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B211" s="31">
+        <v>1509</v>
+      </c>
+      <c r="C211" s="59"/>
+      <c r="D211" s="85"/>
+      <c r="E211" s="82"/>
+      <c r="F211" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+    </row>
+    <row r="212" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B212" s="31">
+        <v>1510</v>
+      </c>
+      <c r="C212" s="59"/>
+      <c r="D212" s="85"/>
+      <c r="E212" s="82"/>
+      <c r="F212" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+    </row>
+    <row r="213" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B213" s="31">
+        <v>1511</v>
+      </c>
+      <c r="C213" s="59"/>
+      <c r="D213" s="85"/>
+      <c r="E213" s="82"/>
+      <c r="F213" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+    </row>
+    <row r="214" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B214" s="31">
+        <v>1512</v>
+      </c>
+      <c r="C214" s="59"/>
+      <c r="D214" s="85"/>
+      <c r="E214" s="82"/>
+      <c r="F214" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+    </row>
+    <row r="215" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B215" s="31">
+        <v>1513</v>
+      </c>
+      <c r="C215" s="59"/>
+      <c r="D215" s="85"/>
+      <c r="E215" s="82"/>
+      <c r="F215" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+    </row>
+    <row r="216" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B216" s="31">
+        <v>1514</v>
+      </c>
+      <c r="C216" s="59"/>
+      <c r="D216" s="85"/>
+      <c r="E216" s="82"/>
+      <c r="F216" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+    </row>
+    <row r="217" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B217" s="31">
+        <v>1515</v>
+      </c>
+      <c r="C217" s="59"/>
+      <c r="D217" s="85"/>
+      <c r="E217" s="82"/>
+      <c r="F217" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+    </row>
+    <row r="218" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B218" s="31">
+        <v>1516</v>
+      </c>
+      <c r="C218" s="59"/>
+      <c r="D218" s="85"/>
+      <c r="E218" s="82"/>
+      <c r="F218" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+    </row>
+    <row r="219" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B219" s="31">
+        <v>1517</v>
+      </c>
+      <c r="C219" s="59"/>
+      <c r="D219" s="85"/>
+      <c r="E219" s="82"/>
+      <c r="F219" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+    </row>
+    <row r="220" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B220" s="31">
+        <v>1518</v>
+      </c>
+      <c r="C220" s="59"/>
+      <c r="D220" s="85"/>
+      <c r="E220" s="82"/>
+      <c r="F220" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+    </row>
+    <row r="221" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B221" s="31">
+        <v>1519</v>
+      </c>
+      <c r="C221" s="59"/>
+      <c r="D221" s="85"/>
+      <c r="E221" s="82"/>
+      <c r="F221" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+    </row>
+    <row r="222" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B222" s="31">
+        <v>1520</v>
+      </c>
+      <c r="C222" s="59"/>
+      <c r="D222" s="85"/>
+      <c r="E222" s="82"/>
+      <c r="F222" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+    </row>
+    <row r="223" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B223" s="31">
+        <v>1521</v>
+      </c>
+      <c r="C223" s="59"/>
+      <c r="D223" s="85"/>
+      <c r="E223" s="82"/>
+      <c r="F223" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+    </row>
+    <row r="224" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B224" s="31">
+        <v>1522</v>
+      </c>
+      <c r="C224" s="59"/>
+      <c r="D224" s="85"/>
+      <c r="E224" s="82"/>
+      <c r="F224" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+    </row>
+    <row r="225" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B225" s="31">
+        <v>1523</v>
+      </c>
+      <c r="C225" s="59"/>
+      <c r="D225" s="85"/>
+      <c r="E225" s="82"/>
+      <c r="F225" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+    </row>
+    <row r="226" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B226" s="31">
+        <v>1524</v>
+      </c>
+      <c r="C226" s="59"/>
+      <c r="D226" s="85"/>
+      <c r="E226" s="82"/>
+      <c r="F226" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
+    </row>
+    <row r="227" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B227" s="31">
+        <v>1525</v>
+      </c>
+      <c r="C227" s="59"/>
+      <c r="D227" s="85"/>
+      <c r="E227" s="82"/>
+      <c r="F227" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
+    </row>
+    <row r="228" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B228" s="31">
+        <v>1526</v>
+      </c>
+      <c r="C228" s="59"/>
+      <c r="D228" s="85"/>
+      <c r="E228" s="82"/>
+      <c r="F228" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
+    </row>
+    <row r="229" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B229" s="31">
+        <v>1527</v>
+      </c>
+      <c r="C229" s="59"/>
+      <c r="D229" s="85"/>
+      <c r="E229" s="82"/>
+      <c r="F229" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+    </row>
+    <row r="230" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B230" s="31">
+        <v>1528</v>
+      </c>
+      <c r="C230" s="59"/>
+      <c r="D230" s="85"/>
+      <c r="E230" s="82"/>
+      <c r="F230" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+    </row>
+    <row r="231" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B231" s="31">
+        <v>1529</v>
+      </c>
+      <c r="C231" s="59"/>
+      <c r="D231" s="85"/>
+      <c r="E231" s="82"/>
+      <c r="F231" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+    </row>
+    <row r="232" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B232" s="31">
+        <v>1530</v>
+      </c>
+      <c r="C232" s="59"/>
+      <c r="D232" s="85"/>
+      <c r="E232" s="82"/>
+      <c r="F232" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+    </row>
+    <row r="233" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B233" s="31">
+        <v>1531</v>
+      </c>
+      <c r="C233" s="59"/>
+      <c r="D233" s="85"/>
+      <c r="E233" s="82"/>
+      <c r="F233" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+    </row>
+    <row r="234" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B234" s="31">
+        <v>1532</v>
+      </c>
+      <c r="C234" s="59"/>
+      <c r="D234" s="85"/>
+      <c r="E234" s="82"/>
+      <c r="F234" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
+    </row>
+    <row r="235" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B235" s="31">
+        <v>1533</v>
+      </c>
+      <c r="C235" s="59"/>
+      <c r="D235" s="85"/>
+      <c r="E235" s="82"/>
+      <c r="F235" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
+    </row>
+    <row r="236" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B236" s="31">
+        <v>1534</v>
+      </c>
+      <c r="C236" s="59"/>
+      <c r="D236" s="85"/>
+      <c r="E236" s="82"/>
+      <c r="F236" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="1"/>
+    </row>
+    <row r="237" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B237" s="31">
+        <v>1535</v>
+      </c>
+      <c r="C237" s="59"/>
+      <c r="D237" s="85"/>
+      <c r="E237" s="82"/>
+      <c r="F237" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="1"/>
+    </row>
+    <row r="238" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B238" s="31">
+        <v>1536</v>
+      </c>
+      <c r="C238" s="60"/>
+      <c r="D238" s="86"/>
+      <c r="E238" s="83"/>
+      <c r="F238" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+      <c r="J238" s="1"/>
+      <c r="K238" s="1"/>
+      <c r="L238" s="1"/>
+      <c r="M238" s="1"/>
+    </row>
+    <row r="239" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B239" s="32">
+        <v>1601</v>
+      </c>
+      <c r="C239" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="D239" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="E239" s="77" t="s">
+        <v>245</v>
+      </c>
+      <c r="F239" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="1"/>
+    </row>
+    <row r="240" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B240" s="32">
+        <v>1602</v>
+      </c>
+      <c r="C240" s="59"/>
+      <c r="D240" s="80"/>
+      <c r="E240" s="78"/>
+      <c r="F240" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
+    </row>
+    <row r="241" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B241" s="32">
+        <v>1603</v>
+      </c>
+      <c r="C241" s="59"/>
+      <c r="D241" s="80"/>
+      <c r="E241" s="78"/>
+      <c r="F241" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1"/>
+      <c r="K241" s="1"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="1"/>
+    </row>
+    <row r="242" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B242" s="32">
+        <v>1604</v>
+      </c>
+      <c r="C242" s="59"/>
+      <c r="D242" s="80"/>
+      <c r="E242" s="78"/>
+      <c r="F242" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+    </row>
+    <row r="243" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B243" s="32">
+        <v>1605</v>
+      </c>
+      <c r="C243" s="59"/>
+      <c r="D243" s="80"/>
+      <c r="E243" s="78"/>
+      <c r="F243" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+    </row>
+    <row r="244" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B244" s="32">
+        <v>1606</v>
+      </c>
+      <c r="C244" s="59"/>
+      <c r="D244" s="80"/>
+      <c r="E244" s="78"/>
+      <c r="F244" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
+      <c r="J244" s="1"/>
+      <c r="K244" s="1"/>
+      <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
+    </row>
+    <row r="245" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B245" s="32">
+        <v>1607</v>
+      </c>
+      <c r="C245" s="59"/>
+      <c r="D245" s="80"/>
+      <c r="E245" s="78"/>
+      <c r="F245" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+      <c r="J245" s="1"/>
+      <c r="K245" s="1"/>
+      <c r="L245" s="1"/>
+      <c r="M245" s="1"/>
+    </row>
+    <row r="246" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B246" s="32">
+        <v>1608</v>
+      </c>
+      <c r="C246" s="59"/>
+      <c r="D246" s="80"/>
+      <c r="E246" s="78"/>
+      <c r="F246" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
+      <c r="J246" s="1"/>
+      <c r="K246" s="1"/>
+      <c r="L246" s="1"/>
+      <c r="M246" s="1"/>
+    </row>
+    <row r="247" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B247" s="32">
+        <v>1609</v>
+      </c>
+      <c r="C247" s="59"/>
+      <c r="D247" s="80"/>
+      <c r="E247" s="78"/>
+      <c r="F247" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
+      <c r="J247" s="1"/>
+      <c r="K247" s="1"/>
+      <c r="L247" s="1"/>
+      <c r="M247" s="1"/>
+    </row>
+    <row r="248" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B248" s="32">
+        <v>1610</v>
+      </c>
+      <c r="C248" s="59"/>
+      <c r="D248" s="80"/>
+      <c r="E248" s="78"/>
+      <c r="F248" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="1"/>
+    </row>
+    <row r="249" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B249" s="32">
+        <v>1611</v>
+      </c>
+      <c r="C249" s="59"/>
+      <c r="D249" s="80"/>
+      <c r="E249" s="78"/>
+      <c r="F249" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
+    </row>
+    <row r="250" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B250" s="32">
+        <v>1612</v>
+      </c>
+      <c r="C250" s="59"/>
+      <c r="D250" s="80"/>
+      <c r="E250" s="78"/>
+      <c r="F250" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
+      <c r="J250" s="1"/>
+      <c r="K250" s="1"/>
+      <c r="L250" s="1"/>
+      <c r="M250" s="1"/>
+    </row>
+    <row r="251" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B251" s="32">
+        <v>1613</v>
+      </c>
+      <c r="C251" s="59"/>
+      <c r="D251" s="80"/>
+      <c r="E251" s="78"/>
+      <c r="F251" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
+      <c r="J251" s="1"/>
+      <c r="K251" s="1"/>
+      <c r="L251" s="1"/>
+      <c r="M251" s="1"/>
+    </row>
+    <row r="252" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B252" s="32">
+        <v>1614</v>
+      </c>
+      <c r="C252" s="59"/>
+      <c r="D252" s="80"/>
+      <c r="E252" s="78"/>
+      <c r="F252" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+      <c r="L252" s="1"/>
+      <c r="M252" s="1"/>
+    </row>
+    <row r="253" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B253" s="32">
+        <v>1615</v>
+      </c>
+      <c r="C253" s="59"/>
+      <c r="D253" s="80"/>
+      <c r="E253" s="78"/>
+      <c r="F253" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
+      <c r="K253" s="1"/>
+      <c r="L253" s="1"/>
+      <c r="M253" s="1"/>
+    </row>
+    <row r="254" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B254" s="32">
+        <v>1616</v>
+      </c>
+      <c r="C254" s="59"/>
+      <c r="D254" s="80"/>
+      <c r="E254" s="78"/>
+      <c r="F254" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1"/>
+      <c r="I254" s="1"/>
+      <c r="J254" s="1"/>
+      <c r="K254" s="1"/>
+      <c r="L254" s="1"/>
+      <c r="M254" s="1"/>
+    </row>
+    <row r="255" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B255" s="32">
+        <v>1617</v>
+      </c>
+      <c r="C255" s="59"/>
+      <c r="D255" s="80"/>
+      <c r="E255" s="78"/>
+      <c r="F255" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1"/>
+      <c r="I255" s="1"/>
+      <c r="J255" s="1"/>
+      <c r="K255" s="1"/>
+      <c r="L255" s="1"/>
+      <c r="M255" s="1"/>
+    </row>
+    <row r="256" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B256" s="32">
+        <v>1618</v>
+      </c>
+      <c r="C256" s="59"/>
+      <c r="D256" s="80"/>
+      <c r="E256" s="78"/>
+      <c r="F256" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
+      <c r="J256" s="1"/>
+      <c r="K256" s="1"/>
+      <c r="L256" s="1"/>
+      <c r="M256" s="1"/>
+    </row>
+    <row r="257" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B257" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="C257" s="61"/>
+      <c r="D257" s="80"/>
+      <c r="E257" s="78"/>
+      <c r="F257" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
+      <c r="J257" s="1"/>
+      <c r="K257" s="1"/>
+      <c r="L257" s="1"/>
+      <c r="M257" s="1"/>
+    </row>
+    <row r="258" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B258" s="45">
+        <v>1701</v>
+      </c>
+      <c r="C258" s="62" t="s">
+        <v>313</v>
+      </c>
+      <c r="D258" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="E258" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="F258" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
+      <c r="J258" s="1"/>
+      <c r="K258" s="1"/>
+      <c r="L258" s="3"/>
+      <c r="M258" s="1"/>
+    </row>
+    <row r="259" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B259" s="45">
+        <v>1702</v>
+      </c>
+      <c r="C259" s="62"/>
+      <c r="D259" s="66"/>
+      <c r="E259" s="67"/>
+      <c r="F259" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1"/>
+      <c r="I259" s="1"/>
+      <c r="J259" s="1"/>
+      <c r="K259" s="1"/>
+      <c r="L259" s="3"/>
+      <c r="M259" s="1"/>
+    </row>
+    <row r="260" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B260" s="45">
+        <v>1703</v>
+      </c>
+      <c r="C260" s="62"/>
+      <c r="D260" s="66"/>
+      <c r="E260" s="67"/>
+      <c r="F260" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1"/>
+      <c r="L260" s="3"/>
+      <c r="M260" s="1"/>
+    </row>
+    <row r="261" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B261" s="45">
+        <v>1704</v>
+      </c>
+      <c r="C261" s="62"/>
+      <c r="D261" s="66"/>
+      <c r="E261" s="67"/>
+      <c r="F261" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
+      <c r="J261" s="1"/>
+      <c r="K261" s="1"/>
+      <c r="L261" s="3"/>
+      <c r="M261" s="1"/>
+    </row>
+    <row r="262" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B262" s="45">
+        <v>1705</v>
+      </c>
+      <c r="C262" s="62"/>
+      <c r="D262" s="66"/>
+      <c r="E262" s="67"/>
+      <c r="F262" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
+      <c r="J262" s="1"/>
+      <c r="K262" s="1"/>
+      <c r="L262" s="3"/>
+      <c r="M262" s="1"/>
+    </row>
+    <row r="263" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B263" s="45">
+        <v>1706</v>
+      </c>
+      <c r="C263" s="62"/>
+      <c r="D263" s="66"/>
+      <c r="E263" s="67"/>
+      <c r="F263" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="1"/>
+      <c r="J263" s="1"/>
+      <c r="K263" s="1"/>
+      <c r="L263" s="3"/>
+      <c r="M263" s="1"/>
+    </row>
+    <row r="264" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B264" s="45">
+        <v>1707</v>
+      </c>
+      <c r="C264" s="62"/>
+      <c r="D264" s="66"/>
+      <c r="E264" s="67"/>
+      <c r="F264" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="1"/>
+      <c r="J264" s="1"/>
+      <c r="K264" s="1"/>
+      <c r="L264" s="3"/>
+      <c r="M264" s="1"/>
+    </row>
+    <row r="265" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B265" s="45">
+        <v>1708</v>
+      </c>
+      <c r="C265" s="62"/>
+      <c r="D265" s="66"/>
+      <c r="E265" s="67"/>
+      <c r="F265" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+      <c r="I265" s="1"/>
+      <c r="J265" s="1"/>
+      <c r="K265" s="1"/>
+      <c r="L265" s="3"/>
+      <c r="M265" s="1"/>
+    </row>
+    <row r="266" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B266" s="45">
+        <v>1709</v>
+      </c>
+      <c r="C266" s="62"/>
+      <c r="D266" s="66"/>
+      <c r="E266" s="67"/>
+      <c r="F266" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="G266" s="1"/>
+      <c r="H266" s="1"/>
+      <c r="I266" s="1"/>
+      <c r="J266" s="1"/>
+      <c r="K266" s="1"/>
+      <c r="L266" s="3"/>
+      <c r="M266" s="1"/>
+    </row>
+    <row r="267" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B267" s="45">
+        <v>1710</v>
+      </c>
+      <c r="C267" s="62"/>
+      <c r="D267" s="66"/>
+      <c r="E267" s="67"/>
+      <c r="F267" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="I267" s="1"/>
+      <c r="J267" s="1"/>
+      <c r="K267" s="1"/>
+      <c r="L267" s="3"/>
+      <c r="M267" s="1"/>
+    </row>
+    <row r="268" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B268" s="45">
+        <v>1711</v>
+      </c>
+      <c r="C268" s="62"/>
+      <c r="D268" s="66"/>
+      <c r="E268" s="67"/>
+      <c r="F268" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1"/>
+      <c r="I268" s="1"/>
+      <c r="J268" s="1"/>
+      <c r="K268" s="1"/>
+      <c r="L268" s="3"/>
+      <c r="M268" s="1"/>
+    </row>
+    <row r="269" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B269" s="45">
+        <v>1712</v>
+      </c>
+      <c r="C269" s="62"/>
+      <c r="D269" s="66"/>
+      <c r="E269" s="67"/>
+      <c r="F269" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1"/>
+      <c r="I269" s="1"/>
+      <c r="J269" s="1"/>
+      <c r="K269" s="1"/>
+      <c r="L269" s="3"/>
+      <c r="M269" s="1"/>
+    </row>
+    <row r="270" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B270" s="45">
+        <v>1713</v>
+      </c>
+      <c r="C270" s="62"/>
+      <c r="D270" s="66"/>
+      <c r="E270" s="67"/>
+      <c r="F270" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1"/>
+      <c r="I270" s="1"/>
+      <c r="J270" s="1"/>
+      <c r="K270" s="1"/>
+      <c r="L270" s="3"/>
+      <c r="M270" s="1"/>
+    </row>
+    <row r="271" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B271" s="45">
+        <v>1714</v>
+      </c>
+      <c r="C271" s="62"/>
+      <c r="D271" s="66"/>
+      <c r="E271" s="67"/>
+      <c r="F271" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="G271" s="1"/>
+      <c r="H271" s="1"/>
+      <c r="I271" s="1"/>
+      <c r="J271" s="1"/>
+      <c r="K271" s="1"/>
+      <c r="L271" s="3"/>
+      <c r="M271" s="1"/>
+    </row>
+    <row r="272" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B272" s="45">
+        <v>1715</v>
+      </c>
+      <c r="C272" s="62"/>
+      <c r="D272" s="66"/>
+      <c r="E272" s="67"/>
+      <c r="F272" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1"/>
+      <c r="I272" s="1"/>
+      <c r="J272" s="1"/>
+      <c r="K272" s="1"/>
+      <c r="L272" s="3"/>
+      <c r="M272" s="1"/>
+    </row>
+    <row r="273" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B273" s="45">
+        <v>1716</v>
+      </c>
+      <c r="C273" s="62"/>
+      <c r="D273" s="66"/>
+      <c r="E273" s="67"/>
+      <c r="F273" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="G273" s="1"/>
+      <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
+      <c r="J273" s="1"/>
+      <c r="K273" s="1"/>
+      <c r="L273" s="3"/>
+      <c r="M273" s="1"/>
+    </row>
+    <row r="274" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B274" s="45">
+        <v>1717</v>
+      </c>
+      <c r="C274" s="62"/>
+      <c r="D274" s="66"/>
+      <c r="E274" s="67"/>
+      <c r="F274" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="G274" s="1"/>
+      <c r="H274" s="1"/>
+      <c r="I274" s="1"/>
+      <c r="J274" s="1"/>
+      <c r="K274" s="1"/>
+      <c r="L274" s="3"/>
+      <c r="M274" s="1"/>
+    </row>
+    <row r="275" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B275" s="45">
+        <v>1718</v>
+      </c>
+      <c r="C275" s="62"/>
+      <c r="D275" s="66"/>
+      <c r="E275" s="67"/>
+      <c r="F275" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1"/>
+      <c r="I275" s="1"/>
+      <c r="J275" s="1"/>
+      <c r="K275" s="1"/>
+      <c r="L275" s="3"/>
+      <c r="M275" s="1"/>
+    </row>
+    <row r="276" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B276" s="45">
+        <v>1719</v>
+      </c>
+      <c r="C276" s="62"/>
+      <c r="D276" s="66"/>
+      <c r="E276" s="67"/>
+      <c r="F276" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1"/>
+      <c r="I276" s="1"/>
+      <c r="J276" s="1"/>
+      <c r="K276" s="1"/>
+      <c r="L276" s="3"/>
+      <c r="M276" s="1"/>
+    </row>
+    <row r="277" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B277" s="45">
+        <v>1720</v>
+      </c>
+      <c r="C277" s="62"/>
+      <c r="D277" s="66"/>
+      <c r="E277" s="67"/>
+      <c r="F277" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="G277" s="1"/>
+      <c r="H277" s="1"/>
+      <c r="I277" s="1"/>
+      <c r="J277" s="1"/>
+      <c r="K277" s="1"/>
+      <c r="L277" s="3"/>
+      <c r="M277" s="1"/>
+    </row>
+    <row r="278" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B278" s="45">
+        <v>1721</v>
+      </c>
+      <c r="C278" s="62"/>
+      <c r="D278" s="66"/>
+      <c r="E278" s="67"/>
+      <c r="F278" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="G278" s="1"/>
+      <c r="H278" s="1"/>
+      <c r="I278" s="1"/>
+      <c r="J278" s="1"/>
+      <c r="K278" s="1"/>
+      <c r="L278" s="3"/>
+      <c r="M278" s="1"/>
+    </row>
+    <row r="279" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B279" s="45">
+        <v>1722</v>
+      </c>
+      <c r="C279" s="62"/>
+      <c r="D279" s="66"/>
+      <c r="E279" s="67"/>
+      <c r="F279" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="G279" s="1"/>
+      <c r="H279" s="1"/>
+      <c r="I279" s="1"/>
+      <c r="J279" s="1"/>
+      <c r="K279" s="1"/>
+      <c r="L279" s="3"/>
+      <c r="M279" s="1"/>
+    </row>
+    <row r="280" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B280" s="45">
+        <v>1723</v>
+      </c>
+      <c r="C280" s="62"/>
+      <c r="D280" s="66"/>
+      <c r="E280" s="67"/>
+      <c r="F280" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="G280" s="1"/>
+      <c r="H280" s="1"/>
+      <c r="I280" s="1"/>
+      <c r="J280" s="1"/>
+      <c r="K280" s="1"/>
+      <c r="L280" s="3"/>
+      <c r="M280" s="1"/>
+    </row>
+    <row r="281" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B281" s="45">
+        <v>1724</v>
+      </c>
+      <c r="C281" s="62"/>
+      <c r="D281" s="66"/>
+      <c r="E281" s="67"/>
+      <c r="F281" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="G281" s="1"/>
+      <c r="H281" s="1"/>
+      <c r="I281" s="1"/>
+      <c r="J281" s="1"/>
+      <c r="K281" s="1"/>
+      <c r="L281" s="3"/>
+      <c r="M281" s="1"/>
+    </row>
+    <row r="282" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B282" s="45">
+        <v>1725</v>
+      </c>
+      <c r="C282" s="62"/>
+      <c r="D282" s="66"/>
+      <c r="E282" s="67"/>
+      <c r="F282" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="G282" s="1"/>
+      <c r="H282" s="1"/>
+      <c r="I282" s="1"/>
+      <c r="J282" s="1"/>
+      <c r="K282" s="1"/>
+      <c r="L282" s="3"/>
+      <c r="M282" s="1"/>
+    </row>
+    <row r="283" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B283" s="45">
+        <v>1726</v>
+      </c>
+      <c r="C283" s="62"/>
+      <c r="D283" s="66"/>
+      <c r="E283" s="67"/>
+      <c r="F283" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="G283" s="1"/>
+      <c r="H283" s="1"/>
+      <c r="I283" s="1"/>
+      <c r="J283" s="1"/>
+      <c r="K283" s="1"/>
+      <c r="L283" s="3"/>
+      <c r="M283" s="1"/>
+    </row>
+    <row r="284" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B284" s="45">
+        <v>1727</v>
+      </c>
+      <c r="C284" s="62"/>
+      <c r="D284" s="66"/>
+      <c r="E284" s="67"/>
+      <c r="F284" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="G284" s="1"/>
+      <c r="H284" s="1"/>
+      <c r="I284" s="1"/>
+      <c r="J284" s="1"/>
+      <c r="K284" s="1"/>
+      <c r="L284" s="3"/>
+      <c r="M284" s="1"/>
+    </row>
+    <row r="285" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B285" s="45">
+        <v>1728</v>
+      </c>
+      <c r="C285" s="62"/>
+      <c r="D285" s="66"/>
+      <c r="E285" s="67"/>
+      <c r="F285" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="G285" s="1"/>
+      <c r="H285" s="1"/>
+      <c r="I285" s="1"/>
+      <c r="J285" s="1"/>
+      <c r="K285" s="1"/>
+      <c r="L285" s="3"/>
+      <c r="M285" s="1"/>
+    </row>
+    <row r="286" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B286" s="45">
+        <v>1729</v>
+      </c>
+      <c r="C286" s="62"/>
+      <c r="D286" s="66"/>
+      <c r="E286" s="67"/>
+      <c r="F286" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="G286" s="1"/>
+      <c r="H286" s="1"/>
+      <c r="I286" s="1"/>
+      <c r="J286" s="1"/>
+      <c r="K286" s="1"/>
+      <c r="L286" s="3"/>
+      <c r="M286" s="1"/>
+    </row>
+    <row r="287" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B287" s="45">
+        <v>1730</v>
+      </c>
+      <c r="C287" s="62"/>
+      <c r="D287" s="66"/>
+      <c r="E287" s="67"/>
+      <c r="F287" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="G287" s="1"/>
+      <c r="H287" s="1"/>
+      <c r="I287" s="1"/>
+      <c r="J287" s="1"/>
+      <c r="K287" s="1"/>
+      <c r="L287" s="3"/>
+      <c r="M287" s="1"/>
+    </row>
+    <row r="288" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B288" s="45">
+        <v>1731</v>
+      </c>
+      <c r="C288" s="62"/>
+      <c r="D288" s="66"/>
+      <c r="E288" s="67"/>
+      <c r="F288" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1"/>
+      <c r="I288" s="1"/>
+      <c r="J288" s="1"/>
+      <c r="K288" s="1"/>
+      <c r="L288" s="3"/>
+      <c r="M288" s="1"/>
+    </row>
+    <row r="289" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B289" s="45">
+        <v>1732</v>
+      </c>
+      <c r="C289" s="62"/>
+      <c r="D289" s="66"/>
+      <c r="E289" s="67"/>
+      <c r="F289" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="G289" s="1"/>
+      <c r="H289" s="1"/>
+      <c r="I289" s="1"/>
+      <c r="J289" s="1"/>
+      <c r="K289" s="1"/>
+      <c r="L289" s="3"/>
+      <c r="M289" s="1"/>
+    </row>
+    <row r="290" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B290" s="45">
+        <v>1733</v>
+      </c>
+      <c r="C290" s="62"/>
+      <c r="D290" s="66"/>
+      <c r="E290" s="67"/>
+      <c r="F290" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="G290" s="1"/>
+      <c r="H290" s="1"/>
+      <c r="I290" s="1"/>
+      <c r="J290" s="1"/>
+      <c r="K290" s="1"/>
+      <c r="L290" s="3"/>
+      <c r="M290" s="1"/>
+    </row>
+    <row r="291" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B291" s="45">
+        <v>1734</v>
+      </c>
+      <c r="C291" s="62"/>
+      <c r="D291" s="66"/>
+      <c r="E291" s="67"/>
+      <c r="F291" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="G291" s="1"/>
+      <c r="H291" s="1"/>
+      <c r="I291" s="1"/>
+      <c r="J291" s="1"/>
+      <c r="K291" s="1"/>
+      <c r="L291" s="3"/>
+      <c r="M291" s="1"/>
+    </row>
+    <row r="292" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B292" s="45">
+        <v>1735</v>
+      </c>
+      <c r="C292" s="62"/>
+      <c r="D292" s="66"/>
+      <c r="E292" s="67"/>
+      <c r="F292" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="G292" s="1"/>
+      <c r="H292" s="1"/>
+      <c r="I292" s="1"/>
+      <c r="J292" s="1"/>
+      <c r="K292" s="1"/>
+      <c r="L292" s="3"/>
+      <c r="M292" s="1"/>
+    </row>
+    <row r="293" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B293" s="45">
+        <v>1736</v>
+      </c>
+      <c r="C293" s="62"/>
+      <c r="D293" s="66"/>
+      <c r="E293" s="67"/>
+      <c r="F293" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="G293" s="1"/>
+      <c r="H293" s="1"/>
+      <c r="I293" s="1"/>
+      <c r="J293" s="1"/>
+      <c r="K293" s="1"/>
+      <c r="L293" s="3"/>
+      <c r="M293" s="1"/>
+    </row>
+    <row r="294" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B294" s="45">
+        <v>1737</v>
+      </c>
+      <c r="C294" s="62"/>
+      <c r="D294" s="66"/>
+      <c r="E294" s="67"/>
+      <c r="F294" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1"/>
+      <c r="I294" s="1"/>
+      <c r="J294" s="1"/>
+      <c r="K294" s="1"/>
+      <c r="L294" s="3"/>
+      <c r="M294" s="1"/>
+    </row>
+    <row r="295" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B295" s="45">
+        <v>1738</v>
+      </c>
+      <c r="C295" s="62"/>
+      <c r="D295" s="66"/>
+      <c r="E295" s="67"/>
+      <c r="F295" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="G295" s="1"/>
+      <c r="H295" s="1"/>
+      <c r="I295" s="1"/>
+      <c r="J295" s="1"/>
+      <c r="K295" s="1"/>
+      <c r="L295" s="3"/>
+      <c r="M295" s="1"/>
+    </row>
+    <row r="296" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B296" s="45">
+        <v>1739</v>
+      </c>
+      <c r="C296" s="62"/>
+      <c r="D296" s="66"/>
+      <c r="E296" s="67"/>
+      <c r="F296" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="G296" s="1"/>
+      <c r="H296" s="1"/>
+      <c r="I296" s="1"/>
+      <c r="J296" s="1"/>
+      <c r="K296" s="1"/>
+      <c r="L296" s="3"/>
+      <c r="M296" s="1"/>
+    </row>
+    <row r="297" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B297" s="45">
+        <v>1740</v>
+      </c>
+      <c r="C297" s="62"/>
+      <c r="D297" s="66"/>
+      <c r="E297" s="67"/>
+      <c r="F297" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="G297" s="1"/>
+      <c r="H297" s="1"/>
+      <c r="I297" s="1"/>
+      <c r="J297" s="1"/>
+      <c r="K297" s="1"/>
+      <c r="L297" s="3"/>
+      <c r="M297" s="1"/>
+    </row>
+    <row r="298" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B298" s="45">
+        <v>1741</v>
+      </c>
+      <c r="C298" s="62"/>
+      <c r="D298" s="66"/>
+      <c r="E298" s="67"/>
+      <c r="F298" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="G298" s="1"/>
+      <c r="H298" s="1"/>
+      <c r="I298" s="1"/>
+      <c r="J298" s="1"/>
+      <c r="K298" s="1"/>
+      <c r="L298" s="3"/>
+      <c r="M298" s="1"/>
+    </row>
+    <row r="299" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B299" s="45">
+        <v>1742</v>
+      </c>
+      <c r="C299" s="62"/>
+      <c r="D299" s="66"/>
+      <c r="E299" s="67"/>
+      <c r="F299" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="G299" s="1"/>
+      <c r="H299" s="1"/>
+      <c r="I299" s="1"/>
+      <c r="J299" s="1"/>
+      <c r="K299" s="1"/>
+      <c r="L299" s="3"/>
+      <c r="M299" s="1"/>
+    </row>
+    <row r="300" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B300" s="44">
+        <v>1801</v>
+      </c>
+      <c r="C300" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="D300" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="E300" s="68" t="s">
+        <v>264</v>
+      </c>
+      <c r="F300" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="G300" s="1"/>
+      <c r="H300" s="1"/>
+      <c r="I300" s="1"/>
+      <c r="J300" s="1"/>
+      <c r="K300" s="1"/>
+      <c r="L300" s="1"/>
+      <c r="M300" s="1"/>
+    </row>
+    <row r="301" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B301" s="33">
+        <v>1802</v>
+      </c>
+      <c r="C301" s="61"/>
+      <c r="D301" s="71"/>
+      <c r="E301" s="69"/>
+      <c r="F301" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="G301" s="1"/>
+      <c r="H301" s="1"/>
+      <c r="I301" s="1"/>
+      <c r="J301" s="1"/>
+      <c r="K301" s="1"/>
+      <c r="L301" s="1"/>
+      <c r="M301" s="1"/>
+    </row>
+    <row r="302" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B302" s="46">
+        <v>1901</v>
+      </c>
+      <c r="C302" s="53" t="s">
+        <v>312</v>
+      </c>
+      <c r="D302" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E302" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="F302" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="G302" s="1"/>
+      <c r="H302" s="1"/>
+      <c r="I302" s="1"/>
+      <c r="J302" s="1"/>
+      <c r="K302" s="1"/>
+      <c r="L302" s="1"/>
+      <c r="M302" s="1"/>
+    </row>
+    <row r="303" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B303" s="50">
+        <v>2001</v>
+      </c>
+      <c r="C303" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="D303" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="E303" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="F303" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G303" s="1"/>
+      <c r="H303" s="1"/>
+      <c r="I303" s="1"/>
+      <c r="J303" s="1"/>
+      <c r="K303" s="1"/>
+      <c r="L303" s="1"/>
+      <c r="M303" s="1"/>
+    </row>
+    <row r="304" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B304" s="50">
+        <v>2002</v>
+      </c>
+      <c r="C304" s="63"/>
+      <c r="D304" s="73"/>
+      <c r="E304" s="72"/>
+      <c r="F304" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="G304" s="1"/>
+      <c r="H304" s="1"/>
+      <c r="I304" s="1"/>
+      <c r="J304" s="1"/>
+      <c r="K304" s="1"/>
+      <c r="L304" s="1"/>
+      <c r="M304" s="1"/>
+    </row>
+    <row r="305" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B305" s="49">
+        <v>2101</v>
+      </c>
+      <c r="C305" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="D305" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="E305" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="F305" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="G305" s="1"/>
+      <c r="H305" s="1"/>
+      <c r="I305" s="1"/>
+      <c r="J305" s="1"/>
+      <c r="K305" s="1"/>
+      <c r="L305" s="1"/>
+      <c r="M305" s="1"/>
+    </row>
+    <row r="306" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B306" s="49">
+        <v>2102</v>
+      </c>
+      <c r="C306" s="65"/>
+      <c r="D306" s="56"/>
+      <c r="E306" s="54"/>
+      <c r="F306" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="G306" s="1"/>
+      <c r="H306" s="1"/>
+      <c r="I306" s="1"/>
+      <c r="J306" s="1"/>
+      <c r="K306" s="1"/>
+      <c r="L306" s="1"/>
+      <c r="M306" s="1"/>
+    </row>
+    <row r="307" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B307" s="49">
+        <v>2103</v>
+      </c>
+      <c r="C307" s="65"/>
+      <c r="D307" s="57"/>
+      <c r="E307" s="55"/>
+      <c r="F307" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="G307" s="1"/>
+      <c r="H307" s="1"/>
+      <c r="I307" s="1"/>
+      <c r="J307" s="1"/>
+      <c r="K307" s="1"/>
+      <c r="L307" s="1"/>
+      <c r="M307" s="1"/>
+    </row>
+    <row r="310" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H310" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="D114:D125"/>
-    <mergeCell ref="C114:C125"/>
-    <mergeCell ref="E114:E125"/>
-    <mergeCell ref="E85:E113"/>
+  <mergeCells count="62">
+    <mergeCell ref="C72:C81"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="C85:C113"/>
+    <mergeCell ref="D85:D113"/>
+    <mergeCell ref="E82:E84"/>
     <mergeCell ref="C5:C18"/>
     <mergeCell ref="C19:C25"/>
     <mergeCell ref="C26:C37"/>
     <mergeCell ref="C38:C60"/>
     <mergeCell ref="C61:C71"/>
-    <mergeCell ref="C72:C81"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="C85:C113"/>
-    <mergeCell ref="D85:D113"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="D5:D18"/>
-    <mergeCell ref="D19:D25"/>
-    <mergeCell ref="D26:D37"/>
-    <mergeCell ref="D38:D60"/>
-    <mergeCell ref="D61:D71"/>
-    <mergeCell ref="D72:D81"/>
     <mergeCell ref="D82:D84"/>
+    <mergeCell ref="D114:D125"/>
+    <mergeCell ref="C114:C125"/>
+    <mergeCell ref="E114:E125"/>
+    <mergeCell ref="E85:E113"/>
     <mergeCell ref="E38:E60"/>
     <mergeCell ref="E61:E71"/>
     <mergeCell ref="E72:E81"/>
@@ -4295,6 +7957,45 @@
     <mergeCell ref="E5:E18"/>
     <mergeCell ref="E19:E25"/>
     <mergeCell ref="E26:E37"/>
+    <mergeCell ref="D26:D37"/>
+    <mergeCell ref="D38:D60"/>
+    <mergeCell ref="D61:D71"/>
+    <mergeCell ref="D72:D81"/>
+    <mergeCell ref="D5:D18"/>
+    <mergeCell ref="D19:D25"/>
+    <mergeCell ref="D126:D146"/>
+    <mergeCell ref="E126:E146"/>
+    <mergeCell ref="C126:C146"/>
+    <mergeCell ref="D147:D150"/>
+    <mergeCell ref="E147:E150"/>
+    <mergeCell ref="D151:D153"/>
+    <mergeCell ref="E151:E153"/>
+    <mergeCell ref="C147:C150"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="D154:D198"/>
+    <mergeCell ref="E154:E198"/>
+    <mergeCell ref="C154:C198"/>
+    <mergeCell ref="E199:E202"/>
+    <mergeCell ref="D199:D202"/>
+    <mergeCell ref="C199:C202"/>
+    <mergeCell ref="E239:E257"/>
+    <mergeCell ref="D239:D257"/>
+    <mergeCell ref="E203:E238"/>
+    <mergeCell ref="D203:D238"/>
+    <mergeCell ref="E305:E307"/>
+    <mergeCell ref="D305:D307"/>
+    <mergeCell ref="C203:C238"/>
+    <mergeCell ref="C239:C257"/>
+    <mergeCell ref="C258:C299"/>
+    <mergeCell ref="C300:C301"/>
+    <mergeCell ref="C303:C304"/>
+    <mergeCell ref="C305:C307"/>
+    <mergeCell ref="D258:D299"/>
+    <mergeCell ref="E258:E299"/>
+    <mergeCell ref="E300:E301"/>
+    <mergeCell ref="D300:D301"/>
+    <mergeCell ref="E303:E304"/>
+    <mergeCell ref="D303:D304"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
